--- a/PROCESSADO ERRO/EMPRESAS/Relatorio - ZUPPER VIAGENS.xlsx
+++ b/PROCESSADO ERRO/EMPRESAS/Relatorio - ZUPPER VIAGENS.xlsx
@@ -479,7 +479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ8"/>
+  <dimension ref="A1:AQ12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1840,10 +1840,10 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
-        <v>21714401</v>
+        <v>21722270</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>22639175</v>
+        <v>22646021</v>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="D8" s="6" t="n">
-        <v>45713.48626157407</v>
+        <v>45714.6279050926</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>45713.48819444444</v>
+        <v>45714.63537037037</v>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="H8" s="5" t="inlineStr">
         <is>
-          <t>HLAZNK</t>
+          <t>XDJ97B</t>
         </is>
       </c>
       <c r="I8" s="5" t="inlineStr">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="J8" s="5" t="inlineStr">
         <is>
-          <t>marli leao</t>
+          <t>Erica Pereira De sousa</t>
         </is>
       </c>
       <c r="K8" s="5" t="inlineStr">
@@ -1892,10 +1892,10 @@
         </is>
       </c>
       <c r="M8" s="6" t="n">
-        <v>45713.48541666667</v>
+        <v>45714.62708333333</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>6605777</v>
+        <v>6607363</v>
       </c>
       <c r="O8" s="5" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="V8" s="5" t="inlineStr">
         <is>
-          <t>Flavia Ribeiro Area Leao Morillas</t>
+          <t>Vanderleia Rossato de Sa Camara</t>
         </is>
       </c>
       <c r="W8" s="5" t="inlineStr">
@@ -1944,84 +1944,840 @@
       </c>
       <c r="X8" s="5" t="inlineStr">
         <is>
+          <t>Azul Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y8" s="5" t="n">
+        <v>7733750450</v>
+      </c>
+      <c r="Z8" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AA8" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB8" s="5" t="n">
+        <v>448.14</v>
+      </c>
+      <c r="AC8" s="5" t="n">
+        <v>51.92</v>
+      </c>
+      <c r="AD8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="5" t="n">
+        <v>35.85</v>
+      </c>
+      <c r="AI8" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ8" s="5" t="inlineStr">
+        <is>
+          <t>Não foi possível definir o Local de destino!</t>
+        </is>
+      </c>
+      <c r="AK8" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AL8" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro enviado errado no Benner</t>
+        </is>
+      </c>
+      <c r="AM8" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro incompleto</t>
+        </is>
+      </c>
+      <c r="AN8" s="5" t="inlineStr">
+        <is>
+          <t>Sistema</t>
+        </is>
+      </c>
+      <c r="AO8" s="5" t="inlineStr">
+        <is>
+          <t>Sistêmico</t>
+        </is>
+      </c>
+      <c r="AP8" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ8" s="5" t="inlineStr">
+        <is>
+          <t>Suporte Benner</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n">
+        <v>21723033</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>22646718</v>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>ACC01</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>45714.72443287037</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>45714.72638888889</v>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>EOMXCF</t>
+        </is>
+      </c>
+      <c r="I9" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J9" s="5" t="inlineStr">
+        <is>
+          <t>KENJI TAKAO</t>
+        </is>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="L9" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>45714.72361111111</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>6606305</v>
+      </c>
+      <c r="O9" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P9" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q9" s="5" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="R9" s="5" t="inlineStr">
+        <is>
+          <t>Cartão convênio</t>
+        </is>
+      </c>
+      <c r="S9" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T9" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U9" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Zupper</t>
+        </is>
+      </c>
+      <c r="V9" s="5" t="inlineStr">
+        <is>
+          <t>Kenji Cascais Takao</t>
+        </is>
+      </c>
+      <c r="W9" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X9" s="5" t="inlineStr">
+        <is>
           <t>Latam Airlines Brasil</t>
         </is>
       </c>
-      <c r="Y8" s="5" t="n">
-        <v>2221314695</v>
-      </c>
-      <c r="Z8" s="5" t="inlineStr">
+      <c r="Y9" s="5" t="n">
+        <v>2221536336</v>
+      </c>
+      <c r="Z9" s="5" t="inlineStr">
         <is>
           <t>ZUPPER</t>
         </is>
       </c>
-      <c r="AA8" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB8" s="5" t="n">
-        <v>145.52</v>
-      </c>
-      <c r="AC8" s="5" t="n">
-        <v>30.95</v>
-      </c>
-      <c r="AD8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="5" t="n">
-        <v>14.55</v>
-      </c>
-      <c r="AI8" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AJ8" s="5" t="inlineStr">
+      <c r="AA9" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB9" s="5" t="n">
+        <v>227.92</v>
+      </c>
+      <c r="AC9" s="5" t="n">
+        <v>51.07</v>
+      </c>
+      <c r="AD9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="5" t="n">
+        <v>25.32</v>
+      </c>
+      <c r="AI9" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ9" s="5" t="inlineStr">
+        <is>
+          <t>Não foi possível encontrar configuração válida para Administradora de código 1 e Data transação 26/02/2025</t>
+        </is>
+      </c>
+      <c r="AK9" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AL9" s="5" t="inlineStr">
+        <is>
+          <t>Forma de Pagamento indevida</t>
+        </is>
+      </c>
+      <c r="AM9" s="5" t="inlineStr">
+        <is>
+          <t>Forma PG. e REC.</t>
+        </is>
+      </c>
+      <c r="AN9" s="5" t="inlineStr">
+        <is>
+          <t>Dados do Fornecedor</t>
+        </is>
+      </c>
+      <c r="AO9" s="5" t="inlineStr">
+        <is>
+          <t>Qualidade dos dados</t>
+        </is>
+      </c>
+      <c r="AP9" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ9" s="5" t="inlineStr">
+        <is>
+          <t>Operações - ZUPPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="n">
+        <v>21724609</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>22648261</v>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>ACC01</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>45714.81324074074</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>45714.81491898148</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G10" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>ERXMWN</t>
+        </is>
+      </c>
+      <c r="I10" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J10" s="5" t="inlineStr">
+        <is>
+          <t>Lucas Gabriel Barbosa Machado</t>
+        </is>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="L10" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>45714.8125</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>6607734</v>
+      </c>
+      <c r="O10" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P10" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q10" s="5" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="R10" s="5" t="inlineStr">
+        <is>
+          <t>Cartão convênio</t>
+        </is>
+      </c>
+      <c r="S10" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T10" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U10" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Zupper</t>
+        </is>
+      </c>
+      <c r="V10" s="5" t="inlineStr">
+        <is>
+          <t>Lucas Gabriel Barbosa Machado</t>
+        </is>
+      </c>
+      <c r="W10" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X10" s="5" t="inlineStr">
+        <is>
+          <t>Latam Airlines Brasil</t>
+        </is>
+      </c>
+      <c r="Y10" s="5" t="n">
+        <v>2221562159</v>
+      </c>
+      <c r="Z10" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AA10" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB10" s="5" t="n">
+        <v>440.8</v>
+      </c>
+      <c r="AC10" s="5" t="n">
+        <v>52.56</v>
+      </c>
+      <c r="AD10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="5" t="n">
+        <v>110.2</v>
+      </c>
+      <c r="AI10" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ10" s="5" t="inlineStr">
         <is>
           <t>Não foi possível definir o Local de destino!</t>
         </is>
       </c>
-      <c r="AK8" s="5" t="inlineStr">
+      <c r="AK10" s="5" t="inlineStr">
         <is>
           <t>ZUPPER</t>
         </is>
       </c>
-      <c r="AL8" s="5" t="inlineStr">
+      <c r="AL10" s="5" t="inlineStr">
         <is>
           <t>Cadastro enviado errado no Benner</t>
         </is>
       </c>
-      <c r="AM8" s="5" t="inlineStr">
+      <c r="AM10" s="5" t="inlineStr">
         <is>
           <t>Cadastro incompleto</t>
         </is>
       </c>
-      <c r="AN8" s="5" t="inlineStr">
+      <c r="AN10" s="5" t="inlineStr">
         <is>
           <t>Sistema</t>
         </is>
       </c>
-      <c r="AO8" s="5" t="inlineStr">
+      <c r="AO10" s="5" t="inlineStr">
         <is>
           <t>Sistêmico</t>
         </is>
       </c>
-      <c r="AP8" s="5" t="inlineStr">
+      <c r="AP10" s="5" t="inlineStr">
         <is>
           <t>ZUPPER VIAGENS</t>
         </is>
       </c>
-      <c r="AQ8" s="5" t="inlineStr">
+      <c r="AQ10" s="5" t="inlineStr">
+        <is>
+          <t>Suporte Benner</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
+        <v>21725052</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>22648717</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>ACC01</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>45714.86890046296</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>45714.87149305556</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>DIW9GM</t>
+        </is>
+      </c>
+      <c r="I11" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J11" s="5" t="inlineStr">
+        <is>
+          <t>Rosimery Lima</t>
+        </is>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="L11" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>45714.86805555555</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>6608203</v>
+      </c>
+      <c r="O11" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P11" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q11" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="R11" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="S11" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T11" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U11" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Zupper</t>
+        </is>
+      </c>
+      <c r="V11" s="5" t="inlineStr">
+        <is>
+          <t>Rosimery Maria Mauricio de Lima</t>
+        </is>
+      </c>
+      <c r="W11" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X11" s="5" t="inlineStr">
+        <is>
+          <t>Azul Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y11" s="5" t="n">
+        <v>3689913456</v>
+      </c>
+      <c r="Z11" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AA11" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB11" s="5" t="n">
+        <v>796.1900000000001</v>
+      </c>
+      <c r="AC11" s="5" t="n">
+        <v>113.34</v>
+      </c>
+      <c r="AD11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="5" t="n">
+        <v>71.66</v>
+      </c>
+      <c r="AI11" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ11" s="5" t="inlineStr">
+        <is>
+          <t>Não foi possível definir o Local de destino!</t>
+        </is>
+      </c>
+      <c r="AK11" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AL11" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro enviado errado no Benner</t>
+        </is>
+      </c>
+      <c r="AM11" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro incompleto</t>
+        </is>
+      </c>
+      <c r="AN11" s="5" t="inlineStr">
+        <is>
+          <t>Sistema</t>
+        </is>
+      </c>
+      <c r="AO11" s="5" t="inlineStr">
+        <is>
+          <t>Sistêmico</t>
+        </is>
+      </c>
+      <c r="AP11" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ11" s="5" t="inlineStr">
+        <is>
+          <t>Suporte Benner</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="n">
+        <v>21725274</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>22648961</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>ACC01</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>45714.89450231481</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>45714.89627314815</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G12" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H12" s="5" t="inlineStr">
+        <is>
+          <t>TH383S</t>
+        </is>
+      </c>
+      <c r="I12" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J12" s="5" t="inlineStr">
+        <is>
+          <t>Sergio Faria</t>
+        </is>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="L12" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>45714.89375</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>6608374</v>
+      </c>
+      <c r="O12" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P12" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q12" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="R12" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="S12" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T12" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U12" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Zupper</t>
+        </is>
+      </c>
+      <c r="V12" s="5" t="inlineStr">
+        <is>
+          <t>Sergio Maciel Faria</t>
+        </is>
+      </c>
+      <c r="W12" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X12" s="5" t="inlineStr">
+        <is>
+          <t>Azul Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y12" s="5" t="n">
+        <v>438599009</v>
+      </c>
+      <c r="Z12" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AA12" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB12" s="5" t="n">
+        <v>636.11</v>
+      </c>
+      <c r="AC12" s="5" t="n">
+        <v>48.75</v>
+      </c>
+      <c r="AD12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="5" t="n">
+        <v>57.25</v>
+      </c>
+      <c r="AI12" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ12" s="5" t="inlineStr">
+        <is>
+          <t>Não foi possível definir o Local de destino!</t>
+        </is>
+      </c>
+      <c r="AK12" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AL12" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro enviado errado no Benner</t>
+        </is>
+      </c>
+      <c r="AM12" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro incompleto</t>
+        </is>
+      </c>
+      <c r="AN12" s="5" t="inlineStr">
+        <is>
+          <t>Sistema</t>
+        </is>
+      </c>
+      <c r="AO12" s="5" t="inlineStr">
+        <is>
+          <t>Sistêmico</t>
+        </is>
+      </c>
+      <c r="AP12" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ12" s="5" t="inlineStr">
         <is>
           <t>Suporte Benner</t>
         </is>

--- a/PROCESSADO ERRO/EMPRESAS/Relatorio - ZUPPER VIAGENS.xlsx
+++ b/PROCESSADO ERRO/EMPRESAS/Relatorio - ZUPPER VIAGENS.xlsx
@@ -479,7 +479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ12"/>
+  <dimension ref="A1:AQ25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -706,10 +706,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
-        <v>21541194</v>
+        <v>21756613</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>22493966</v>
+        <v>22676949</v>
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
@@ -717,24 +717,24 @@
         </is>
       </c>
       <c r="D2" s="6" t="n">
-        <v>45685.94248842593</v>
+        <v>45720.5584837963</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>45692.75714120371</v>
-      </c>
-      <c r="F2" s="7" t="inlineStr">
-        <is>
-          <t>16 a 23 dias</t>
-        </is>
-      </c>
-      <c r="G2" s="7" t="inlineStr">
-        <is>
-          <t>16 a 23 dias</t>
+        <v>45721.41336805555</v>
+      </c>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="H2" s="5" t="inlineStr">
         <is>
-          <t>2WAY2A</t>
+          <t>RH4WJF</t>
         </is>
       </c>
       <c r="I2" s="5" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="J2" s="5" t="inlineStr">
         <is>
-          <t>Ana Leticia Pereira Ometto</t>
+          <t>MONICA CURVELO</t>
         </is>
       </c>
       <c r="K2" s="5" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="M2" s="6" t="n">
-        <v>45685.94097222222</v>
+        <v>45720.55763888889</v>
       </c>
       <c r="N2" s="5" t="n">
-        <v>6573284</v>
+        <v>6619974</v>
       </c>
       <c r="O2" s="5" t="inlineStr">
         <is>
@@ -775,12 +775,12 @@
       </c>
       <c r="Q2" s="5" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="R2" s="5" t="inlineStr">
         <is>
-          <t>Cartão convênio</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="S2" s="5" t="inlineStr">
@@ -795,12 +795,12 @@
       </c>
       <c r="U2" s="5" t="inlineStr">
         <is>
-          <t>Grupo Zupper</t>
+          <t>-</t>
         </is>
       </c>
       <c r="V2" s="5" t="inlineStr">
         <is>
-          <t>Ana Leticia Pereira Ometto</t>
+          <t>Monica Curvelo</t>
         </is>
       </c>
       <c r="W2" s="5" t="inlineStr">
@@ -810,11 +810,11 @@
       </c>
       <c r="X2" s="5" t="inlineStr">
         <is>
-          <t>Alitalia</t>
+          <t>Azul Linhas Aereas</t>
         </is>
       </c>
       <c r="Y2" s="5" t="n">
-        <v>1409175763</v>
+        <v>7554831895</v>
       </c>
       <c r="Z2" s="5" t="inlineStr">
         <is>
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="AB2" s="5" t="n">
-        <v>4812.88</v>
+        <v>535.04</v>
       </c>
       <c r="AC2" s="5" t="n">
-        <v>930.51</v>
+        <v>31.44</v>
       </c>
       <c r="AD2" s="5" t="n">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="AH2" s="5" t="n">
-        <v>182.79</v>
+        <v>48.15</v>
       </c>
       <c r="AI2" s="5" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
       </c>
       <c r="AJ2" s="5" t="inlineStr">
         <is>
-          <t>Erro excluindo PNR: Não é possivel excluir a accounting de código: 23990287. A mesma está ligada a conciliação de cartão "PAYMEE 29.01.2025.xls"</t>
+          <t>Necessário cadastrar um contrato para o cliente ""</t>
         </is>
       </c>
       <c r="AK2" s="5" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="AL2" s="5" t="inlineStr">
         <is>
-          <t>Conciliação de Cartão</t>
+          <t>Contrato de fornecedor/cliente</t>
         </is>
       </c>
       <c r="AM2" s="5" t="inlineStr">
         <is>
-          <t>Financeiro Conciliado</t>
+          <t>Análise Cadastro</t>
         </is>
       </c>
       <c r="AN2" s="5" t="inlineStr">
         <is>
-          <t>Edição não Permitida</t>
+          <t>Dados do Fornecedor</t>
         </is>
       </c>
       <c r="AO2" s="5" t="inlineStr">
@@ -895,35 +895,35 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
-        <v>21541194</v>
+        <v>21732079</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>22493967</v>
+        <v>22655721</v>
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>ACC02</t>
+          <t>ACC01</t>
         </is>
       </c>
       <c r="D3" s="6" t="n">
-        <v>45685.94248842593</v>
+        <v>45715.75912037037</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>45692.75714120371</v>
-      </c>
-      <c r="F3" s="7" t="inlineStr">
-        <is>
-          <t>16 a 23 dias</t>
-        </is>
-      </c>
-      <c r="G3" s="7" t="inlineStr">
-        <is>
-          <t>16 a 23 dias</t>
+        <v>45715.770625</v>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>06 a 08 dias</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
+        <is>
+          <t>06 a 08 dias</t>
         </is>
       </c>
       <c r="H3" s="5" t="inlineStr">
         <is>
-          <t>2WAY2A</t>
+          <t>YJ84SP</t>
         </is>
       </c>
       <c r="I3" s="5" t="inlineStr">
@@ -933,7 +933,7 @@
       </c>
       <c r="J3" s="5" t="inlineStr">
         <is>
-          <t>Caio Augusto Ometto</t>
+          <t>FELIPE PEREIRA</t>
         </is>
       </c>
       <c r="K3" s="5" t="inlineStr">
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="M3" s="6" t="n">
-        <v>45685.94097222222</v>
+        <v>45715.75902777778</v>
       </c>
       <c r="N3" s="5" t="n">
-        <v>6573284</v>
+        <v>6608002</v>
       </c>
       <c r="O3" s="5" t="inlineStr">
         <is>
@@ -984,12 +984,12 @@
       </c>
       <c r="U3" s="5" t="inlineStr">
         <is>
-          <t>Grupo Zupper</t>
+          <t>-</t>
         </is>
       </c>
       <c r="V3" s="5" t="inlineStr">
         <is>
-          <t>Ana Leticia Pereira Ometto</t>
+          <t>Felipe Lima Pereira</t>
         </is>
       </c>
       <c r="W3" s="5" t="inlineStr">
@@ -999,11 +999,11 @@
       </c>
       <c r="X3" s="5" t="inlineStr">
         <is>
-          <t>Alitalia</t>
+          <t>Azul Linhas Aereas</t>
         </is>
       </c>
       <c r="Y3" s="5" t="n">
-        <v>1409175765</v>
+        <v>3868848145</v>
       </c>
       <c r="Z3" s="5" t="inlineStr">
         <is>
@@ -1016,10 +1016,10 @@
         </is>
       </c>
       <c r="AB3" s="5" t="n">
-        <v>4812.88</v>
+        <v>260.68</v>
       </c>
       <c r="AC3" s="5" t="n">
-        <v>930.51</v>
+        <v>116.64</v>
       </c>
       <c r="AD3" s="5" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="AJ3" s="5" t="inlineStr">
         <is>
-          <t>Erro excluindo PNR: Não é possivel excluir a accounting de código: 23990287. A mesma está ligada a conciliação de cartão "PAYMEE 29.01.2025.xls"</t>
+          <t>Necessário cadastrar um contrato para o cliente ""</t>
         </is>
       </c>
       <c r="AK3" s="5" t="inlineStr">
@@ -1053,17 +1053,17 @@
       </c>
       <c r="AL3" s="5" t="inlineStr">
         <is>
-          <t>Conciliação de Cartão</t>
+          <t>Contrato de fornecedor/cliente</t>
         </is>
       </c>
       <c r="AM3" s="5" t="inlineStr">
         <is>
-          <t>Financeiro Conciliado</t>
+          <t>Análise Cadastro</t>
         </is>
       </c>
       <c r="AN3" s="5" t="inlineStr">
         <is>
-          <t>Edição não Permitida</t>
+          <t>Dados do Fornecedor</t>
         </is>
       </c>
       <c r="AO3" s="5" t="inlineStr">
@@ -1084,35 +1084,35 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
-        <v>21541194</v>
+        <v>21732079</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>22493968</v>
+        <v>22655724</v>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>ACC03</t>
+          <t>ACC02</t>
         </is>
       </c>
       <c r="D4" s="6" t="n">
-        <v>45685.94248842593</v>
+        <v>45715.75912037037</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>45692.75714120371</v>
-      </c>
-      <c r="F4" s="7" t="inlineStr">
-        <is>
-          <t>16 a 23 dias</t>
-        </is>
-      </c>
-      <c r="G4" s="7" t="inlineStr">
-        <is>
-          <t>16 a 23 dias</t>
+        <v>45715.770625</v>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>06 a 08 dias</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>06 a 08 dias</t>
         </is>
       </c>
       <c r="H4" s="5" t="inlineStr">
         <is>
-          <t>2WAY2A</t>
+          <t>YJ84SP</t>
         </is>
       </c>
       <c r="I4" s="5" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="J4" s="5" t="inlineStr">
         <is>
-          <t>Bianca Carolina Marcos</t>
+          <t>LUANA COSTA</t>
         </is>
       </c>
       <c r="K4" s="5" t="inlineStr">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="M4" s="6" t="n">
-        <v>45685.94097222222</v>
+        <v>45715.75902777778</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>6573284</v>
+        <v>6608002</v>
       </c>
       <c r="O4" s="5" t="inlineStr">
         <is>
@@ -1173,12 +1173,12 @@
       </c>
       <c r="U4" s="5" t="inlineStr">
         <is>
-          <t>Grupo Zupper</t>
+          <t>-</t>
         </is>
       </c>
       <c r="V4" s="5" t="inlineStr">
         <is>
-          <t>Ana Leticia Pereira Ometto</t>
+          <t>Felipe Lima Pereira</t>
         </is>
       </c>
       <c r="W4" s="5" t="inlineStr">
@@ -1188,11 +1188,11 @@
       </c>
       <c r="X4" s="5" t="inlineStr">
         <is>
-          <t>Alitalia</t>
+          <t>Azul Linhas Aereas</t>
         </is>
       </c>
       <c r="Y4" s="5" t="n">
-        <v>1409175767</v>
+        <v>8618587721</v>
       </c>
       <c r="Z4" s="5" t="inlineStr">
         <is>
@@ -1205,10 +1205,10 @@
         </is>
       </c>
       <c r="AB4" s="5" t="n">
-        <v>4812.88</v>
+        <v>260.68</v>
       </c>
       <c r="AC4" s="5" t="n">
-        <v>930.51</v>
+        <v>116.64</v>
       </c>
       <c r="AD4" s="5" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="AJ4" s="5" t="inlineStr">
         <is>
-          <t>Erro excluindo PNR: Não é possivel excluir a accounting de código: 23990287. A mesma está ligada a conciliação de cartão "PAYMEE 29.01.2025.xls"</t>
+          <t>Necessário cadastrar um contrato para o cliente ""</t>
         </is>
       </c>
       <c r="AK4" s="5" t="inlineStr">
@@ -1242,17 +1242,17 @@
       </c>
       <c r="AL4" s="5" t="inlineStr">
         <is>
-          <t>Conciliação de Cartão</t>
+          <t>Contrato de fornecedor/cliente</t>
         </is>
       </c>
       <c r="AM4" s="5" t="inlineStr">
         <is>
-          <t>Financeiro Conciliado</t>
+          <t>Análise Cadastro</t>
         </is>
       </c>
       <c r="AN4" s="5" t="inlineStr">
         <is>
-          <t>Edição não Permitida</t>
+          <t>Dados do Fornecedor</t>
         </is>
       </c>
       <c r="AO4" s="5" t="inlineStr">
@@ -1273,35 +1273,35 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
-        <v>21541194</v>
+        <v>21730683</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>22493969</v>
+        <v>22654226</v>
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>ACC04</t>
+          <t>ACC01</t>
         </is>
       </c>
       <c r="D5" s="6" t="n">
-        <v>45685.94248842593</v>
+        <v>45715.65082175926</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>45692.75714120371</v>
-      </c>
-      <c r="F5" s="7" t="inlineStr">
-        <is>
-          <t>16 a 23 dias</t>
-        </is>
-      </c>
-      <c r="G5" s="7" t="inlineStr">
-        <is>
-          <t>16 a 23 dias</t>
+        <v>45715.65359953704</v>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>06 a 08 dias</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>06 a 08 dias</t>
         </is>
       </c>
       <c r="H5" s="5" t="inlineStr">
         <is>
-          <t>2WAY2A</t>
+          <t>JTDRQB</t>
         </is>
       </c>
       <c r="I5" s="5" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="J5" s="5" t="inlineStr">
         <is>
-          <t>Aurora Maria Pereira Ometto</t>
+          <t>Ricardo Nogueira</t>
         </is>
       </c>
       <c r="K5" s="5" t="inlineStr">
@@ -1325,10 +1325,10 @@
         </is>
       </c>
       <c r="M5" s="6" t="n">
-        <v>45685.94097222222</v>
+        <v>45715.65069444444</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>6573284</v>
+        <v>6610562</v>
       </c>
       <c r="O5" s="5" t="inlineStr">
         <is>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="Q5" s="5" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="R5" s="5" t="inlineStr">
         <is>
-          <t>Cartão convênio</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="S5" s="5" t="inlineStr">
@@ -1362,12 +1362,12 @@
       </c>
       <c r="U5" s="5" t="inlineStr">
         <is>
-          <t>Grupo Zupper</t>
+          <t>-</t>
         </is>
       </c>
       <c r="V5" s="5" t="inlineStr">
         <is>
-          <t>Ana Leticia Pereira Ometto</t>
+          <t>Ricardo Nogueira da Rocha Raimundo</t>
         </is>
       </c>
       <c r="W5" s="5" t="inlineStr">
@@ -1377,11 +1377,11 @@
       </c>
       <c r="X5" s="5" t="inlineStr">
         <is>
-          <t>Alitalia</t>
+          <t>Gol Linhas Aereas</t>
         </is>
       </c>
       <c r="Y5" s="5" t="n">
-        <v>917576970</v>
+        <v>9878238723</v>
       </c>
       <c r="Z5" s="5" t="inlineStr">
         <is>
@@ -1394,10 +1394,10 @@
         </is>
       </c>
       <c r="AB5" s="5" t="n">
-        <v>3840.82</v>
+        <v>980.24</v>
       </c>
       <c r="AC5" s="5" t="n">
-        <v>930.51</v>
+        <v>31.44</v>
       </c>
       <c r="AD5" s="5" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="AH5" s="5" t="n">
-        <v>0</v>
+        <v>58.81</v>
       </c>
       <c r="AI5" s="5" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="AJ5" s="5" t="inlineStr">
         <is>
-          <t>Erro excluindo PNR: Não é possivel excluir a accounting de código: 23990287. A mesma está ligada a conciliação de cartão "PAYMEE 29.01.2025.xls"</t>
+          <t>Necessário cadastrar um contrato para o cliente ""</t>
         </is>
       </c>
       <c r="AK5" s="5" t="inlineStr">
@@ -1431,17 +1431,17 @@
       </c>
       <c r="AL5" s="5" t="inlineStr">
         <is>
-          <t>Conciliação de Cartão</t>
+          <t>Contrato de fornecedor/cliente</t>
         </is>
       </c>
       <c r="AM5" s="5" t="inlineStr">
         <is>
-          <t>Financeiro Conciliado</t>
+          <t>Análise Cadastro</t>
         </is>
       </c>
       <c r="AN5" s="5" t="inlineStr">
         <is>
-          <t>Edição não Permitida</t>
+          <t>Dados do Fornecedor</t>
         </is>
       </c>
       <c r="AO5" s="5" t="inlineStr">
@@ -1462,35 +1462,35 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
-        <v>21541194</v>
+        <v>21749801</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>22493970</v>
+        <v>22671203</v>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>ACC05</t>
+          <t>ACC01</t>
         </is>
       </c>
       <c r="D6" s="6" t="n">
-        <v>45685.94248842593</v>
+        <v>45718.91195601852</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>45692.75714120371</v>
-      </c>
-      <c r="F6" s="7" t="inlineStr">
-        <is>
-          <t>16 a 23 dias</t>
-        </is>
-      </c>
-      <c r="G6" s="7" t="inlineStr">
-        <is>
-          <t>16 a 23 dias</t>
+        <v>45722.63099537037</v>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="H6" s="5" t="inlineStr">
         <is>
-          <t>2WAY2A</t>
+          <t>FNWLAY</t>
         </is>
       </c>
       <c r="I6" s="5" t="inlineStr">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="J6" s="5" t="inlineStr">
         <is>
-          <t>SANTIAGO PEREIRA OMETTO</t>
+          <t>Maria Santos</t>
         </is>
       </c>
       <c r="K6" s="5" t="inlineStr">
@@ -1514,10 +1514,10 @@
         </is>
       </c>
       <c r="M6" s="6" t="n">
-        <v>45685.94097222222</v>
+        <v>45718.91111111111</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>6573284</v>
+        <v>6616790</v>
       </c>
       <c r="O6" s="5" t="inlineStr">
         <is>
@@ -1531,12 +1531,12 @@
       </c>
       <c r="Q6" s="5" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="R6" s="5" t="inlineStr">
         <is>
-          <t>Cartão convênio</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="S6" s="5" t="inlineStr">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="V6" s="5" t="inlineStr">
         <is>
-          <t>Ana Leticia Pereira Ometto</t>
+          <t>Maria Solange Matias</t>
         </is>
       </c>
       <c r="W6" s="5" t="inlineStr">
@@ -1566,11 +1566,11 @@
       </c>
       <c r="X6" s="5" t="inlineStr">
         <is>
-          <t>Alitalia</t>
+          <t>Gol Linhas Aereas</t>
         </is>
       </c>
       <c r="Y6" s="5" t="n">
-        <v>1409175771</v>
+        <v>2133292744</v>
       </c>
       <c r="Z6" s="5" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
         </is>
       </c>
       <c r="AB6" s="5" t="n">
-        <v>509.73</v>
+        <v>1071.42</v>
       </c>
       <c r="AC6" s="5" t="n">
-        <v>0</v>
+        <v>83.11</v>
       </c>
       <c r="AD6" s="5" t="n">
         <v>0</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="AH6" s="5" t="n">
-        <v>0</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="AI6" s="5" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="AJ6" s="5" t="inlineStr">
         <is>
-          <t>Erro excluindo PNR: Não é possivel excluir a accounting de código: 23990287. A mesma está ligada a conciliação de cartão "PAYMEE 29.01.2025.xls"</t>
+          <t>Não foi possível definir o Local de destino!</t>
         </is>
       </c>
       <c r="AK6" s="5" t="inlineStr">
@@ -1620,22 +1620,22 @@
       </c>
       <c r="AL6" s="5" t="inlineStr">
         <is>
-          <t>Conciliação de Cartão</t>
+          <t>Cadastro enviado errado no Benner</t>
         </is>
       </c>
       <c r="AM6" s="5" t="inlineStr">
         <is>
-          <t>Financeiro Conciliado</t>
+          <t>Cadastro incompleto</t>
         </is>
       </c>
       <c r="AN6" s="5" t="inlineStr">
         <is>
-          <t>Edição não Permitida</t>
+          <t>Sistema</t>
         </is>
       </c>
       <c r="AO6" s="5" t="inlineStr">
         <is>
-          <t>Qualidade dos dados</t>
+          <t>Sistêmico</t>
         </is>
       </c>
       <c r="AP6" s="5" t="inlineStr">
@@ -1645,16 +1645,16 @@
       </c>
       <c r="AQ6" s="5" t="inlineStr">
         <is>
-          <t>Operações - ZUPPER</t>
+          <t>Suporte Benner</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
-        <v>21615385</v>
+        <v>21750115</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>22557887</v>
+        <v>22671466</v>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
@@ -1662,24 +1662,24 @@
         </is>
       </c>
       <c r="D7" s="6" t="n">
-        <v>45696.05574074074</v>
+        <v>45718.98274305555</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>45698.71144675926</v>
-      </c>
-      <c r="F7" s="7" t="inlineStr">
-        <is>
-          <t>16 a 23 dias</t>
-        </is>
-      </c>
-      <c r="G7" s="7" t="inlineStr">
-        <is>
-          <t>16 a 23 dias</t>
+        <v>45722.63126157408</v>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
-          <t>JQW4KE</t>
+          <t>KWF73X</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
-          <t>Bruno Batista</t>
+          <t>JOSEMAR OLIVEIRA</t>
         </is>
       </c>
       <c r="K7" s="5" t="inlineStr">
@@ -1703,10 +1703,10 @@
         </is>
       </c>
       <c r="M7" s="6" t="n">
-        <v>45696.05069444444</v>
+        <v>45718.98194444444</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>6583156</v>
+        <v>6616949</v>
       </c>
       <c r="O7" s="5" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="T7" s="5" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>N</t>
         </is>
       </c>
       <c r="U7" s="5" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="V7" s="5" t="inlineStr">
         <is>
-          <t>Zupper Cartao</t>
+          <t>Valeria Loureiro Velasques</t>
         </is>
       </c>
       <c r="W7" s="5" t="inlineStr">
@@ -1759,7 +1759,7 @@
         </is>
       </c>
       <c r="Y7" s="5" t="n">
-        <v>7553619067</v>
+        <v>2283416558</v>
       </c>
       <c r="Z7" s="5" t="inlineStr">
         <is>
@@ -1772,10 +1772,10 @@
         </is>
       </c>
       <c r="AB7" s="5" t="n">
-        <v>834.9400000000001</v>
+        <v>503.15</v>
       </c>
       <c r="AC7" s="5" t="n">
-        <v>104.89</v>
+        <v>36.67</v>
       </c>
       <c r="AD7" s="5" t="n">
         <v>0</v>
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="AH7" s="5" t="n">
-        <v>208.74</v>
+        <v>81.66</v>
       </c>
       <c r="AI7" s="5" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="AJ7" s="5" t="inlineStr">
         <is>
-          <t>Erro excluindo PNR: Não é possivel excluir a accounting de código: 24042460. A mesma está ligada a conciliação de cartão "PAYMEE 07.02.2025.xls"</t>
+          <t>Não foi possível definir o Local de destino!</t>
         </is>
       </c>
       <c r="AK7" s="5" t="inlineStr">
@@ -1809,22 +1809,22 @@
       </c>
       <c r="AL7" s="5" t="inlineStr">
         <is>
-          <t>Conciliação de Cartão</t>
+          <t>Cadastro enviado errado no Benner</t>
         </is>
       </c>
       <c r="AM7" s="5" t="inlineStr">
         <is>
-          <t>Financeiro Conciliado</t>
+          <t>Cadastro incompleto</t>
         </is>
       </c>
       <c r="AN7" s="5" t="inlineStr">
         <is>
-          <t>Edição não Permitida</t>
+          <t>Sistema</t>
         </is>
       </c>
       <c r="AO7" s="5" t="inlineStr">
         <is>
-          <t>Qualidade dos dados</t>
+          <t>Sistêmico</t>
         </is>
       </c>
       <c r="AP7" s="5" t="inlineStr">
@@ -1834,16 +1834,16 @@
       </c>
       <c r="AQ7" s="5" t="inlineStr">
         <is>
-          <t>Operações - ZUPPER</t>
+          <t>Suporte Benner</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
-        <v>21722270</v>
+        <v>21541194</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>22646021</v>
+        <v>22493966</v>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
@@ -1851,24 +1851,24 @@
         </is>
       </c>
       <c r="D8" s="6" t="n">
-        <v>45714.6279050926</v>
+        <v>45685.94248842593</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>45714.63537037037</v>
-      </c>
-      <c r="F8" s="5" t="inlineStr">
-        <is>
-          <t>0 a 02 dias</t>
-        </is>
-      </c>
-      <c r="G8" s="5" t="inlineStr">
-        <is>
-          <t>0 a 02 dias</t>
+        <v>45692.75714120371</v>
+      </c>
+      <c r="F8" s="7" t="inlineStr">
+        <is>
+          <t>31 dias ou +</t>
+        </is>
+      </c>
+      <c r="G8" s="7" t="inlineStr">
+        <is>
+          <t>31 dias ou +</t>
         </is>
       </c>
       <c r="H8" s="5" t="inlineStr">
         <is>
-          <t>XDJ97B</t>
+          <t>2WAY2A</t>
         </is>
       </c>
       <c r="I8" s="5" t="inlineStr">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="J8" s="5" t="inlineStr">
         <is>
-          <t>Erica Pereira De sousa</t>
+          <t>Ana Leticia Pereira Ometto</t>
         </is>
       </c>
       <c r="K8" s="5" t="inlineStr">
@@ -1892,10 +1892,10 @@
         </is>
       </c>
       <c r="M8" s="6" t="n">
-        <v>45714.62708333333</v>
+        <v>45685.94097222222</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>6607363</v>
+        <v>6573284</v>
       </c>
       <c r="O8" s="5" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="V8" s="5" t="inlineStr">
         <is>
-          <t>Vanderleia Rossato de Sa Camara</t>
+          <t>Ana Leticia Pereira Ometto</t>
         </is>
       </c>
       <c r="W8" s="5" t="inlineStr">
@@ -1944,11 +1944,11 @@
       </c>
       <c r="X8" s="5" t="inlineStr">
         <is>
-          <t>Azul Linhas Aereas</t>
+          <t>Alitalia</t>
         </is>
       </c>
       <c r="Y8" s="5" t="n">
-        <v>7733750450</v>
+        <v>1409175763</v>
       </c>
       <c r="Z8" s="5" t="inlineStr">
         <is>
@@ -1961,10 +1961,10 @@
         </is>
       </c>
       <c r="AB8" s="5" t="n">
-        <v>448.14</v>
+        <v>4812.88</v>
       </c>
       <c r="AC8" s="5" t="n">
-        <v>51.92</v>
+        <v>930.51</v>
       </c>
       <c r="AD8" s="5" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="AH8" s="5" t="n">
-        <v>35.85</v>
+        <v>182.79</v>
       </c>
       <c r="AI8" s="5" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="AJ8" s="5" t="inlineStr">
         <is>
-          <t>Não foi possível definir o Local de destino!</t>
+          <t>Erro excluindo PNR: Não é possivel excluir a accounting de código: 23990287. A mesma está ligada a conciliação de cartão "PAYMEE 29.01.2025.xls"</t>
         </is>
       </c>
       <c r="AK8" s="5" t="inlineStr">
@@ -1998,22 +1998,22 @@
       </c>
       <c r="AL8" s="5" t="inlineStr">
         <is>
-          <t>Cadastro enviado errado no Benner</t>
+          <t>Conciliação de Cartão</t>
         </is>
       </c>
       <c r="AM8" s="5" t="inlineStr">
         <is>
-          <t>Cadastro incompleto</t>
+          <t>Financeiro Conciliado</t>
         </is>
       </c>
       <c r="AN8" s="5" t="inlineStr">
         <is>
-          <t>Sistema</t>
+          <t>Edição não Permitida</t>
         </is>
       </c>
       <c r="AO8" s="5" t="inlineStr">
         <is>
-          <t>Sistêmico</t>
+          <t>Qualidade dos dados</t>
         </is>
       </c>
       <c r="AP8" s="5" t="inlineStr">
@@ -2023,41 +2023,41 @@
       </c>
       <c r="AQ8" s="5" t="inlineStr">
         <is>
-          <t>Suporte Benner</t>
+          <t>Operações - ZUPPER</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
-        <v>21723033</v>
+        <v>21541194</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>22646718</v>
+        <v>22493967</v>
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>ACC01</t>
+          <t>ACC02</t>
         </is>
       </c>
       <c r="D9" s="6" t="n">
-        <v>45714.72443287037</v>
+        <v>45685.94248842593</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>45714.72638888889</v>
-      </c>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t>0 a 02 dias</t>
-        </is>
-      </c>
-      <c r="G9" s="5" t="inlineStr">
-        <is>
-          <t>0 a 02 dias</t>
+        <v>45692.75714120371</v>
+      </c>
+      <c r="F9" s="7" t="inlineStr">
+        <is>
+          <t>31 dias ou +</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr">
+        <is>
+          <t>31 dias ou +</t>
         </is>
       </c>
       <c r="H9" s="5" t="inlineStr">
         <is>
-          <t>EOMXCF</t>
+          <t>2WAY2A</t>
         </is>
       </c>
       <c r="I9" s="5" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="J9" s="5" t="inlineStr">
         <is>
-          <t>KENJI TAKAO</t>
+          <t>Caio Augusto Ometto</t>
         </is>
       </c>
       <c r="K9" s="5" t="inlineStr">
@@ -2081,10 +2081,10 @@
         </is>
       </c>
       <c r="M9" s="6" t="n">
-        <v>45714.72361111111</v>
+        <v>45685.94097222222</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>6606305</v>
+        <v>6573284</v>
       </c>
       <c r="O9" s="5" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="V9" s="5" t="inlineStr">
         <is>
-          <t>Kenji Cascais Takao</t>
+          <t>Ana Leticia Pereira Ometto</t>
         </is>
       </c>
       <c r="W9" s="5" t="inlineStr">
@@ -2133,11 +2133,11 @@
       </c>
       <c r="X9" s="5" t="inlineStr">
         <is>
-          <t>Latam Airlines Brasil</t>
+          <t>Alitalia</t>
         </is>
       </c>
       <c r="Y9" s="5" t="n">
-        <v>2221536336</v>
+        <v>1409175765</v>
       </c>
       <c r="Z9" s="5" t="inlineStr">
         <is>
@@ -2150,10 +2150,10 @@
         </is>
       </c>
       <c r="AB9" s="5" t="n">
-        <v>227.92</v>
+        <v>4812.88</v>
       </c>
       <c r="AC9" s="5" t="n">
-        <v>51.07</v>
+        <v>930.51</v>
       </c>
       <c r="AD9" s="5" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="AH9" s="5" t="n">
-        <v>25.32</v>
+        <v>0</v>
       </c>
       <c r="AI9" s="5" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="AJ9" s="5" t="inlineStr">
         <is>
-          <t>Não foi possível encontrar configuração válida para Administradora de código 1 e Data transação 26/02/2025</t>
+          <t>Erro excluindo PNR: Não é possivel excluir a accounting de código: 23990287. A mesma está ligada a conciliação de cartão "PAYMEE 29.01.2025.xls"</t>
         </is>
       </c>
       <c r="AK9" s="5" t="inlineStr">
@@ -2187,17 +2187,17 @@
       </c>
       <c r="AL9" s="5" t="inlineStr">
         <is>
-          <t>Forma de Pagamento indevida</t>
+          <t>Conciliação de Cartão</t>
         </is>
       </c>
       <c r="AM9" s="5" t="inlineStr">
         <is>
-          <t>Forma PG. e REC.</t>
+          <t>Financeiro Conciliado</t>
         </is>
       </c>
       <c r="AN9" s="5" t="inlineStr">
         <is>
-          <t>Dados do Fornecedor</t>
+          <t>Edição não Permitida</t>
         </is>
       </c>
       <c r="AO9" s="5" t="inlineStr">
@@ -2218,35 +2218,35 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
-        <v>21724609</v>
+        <v>21541194</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>22648261</v>
+        <v>22493968</v>
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>ACC01</t>
+          <t>ACC03</t>
         </is>
       </c>
       <c r="D10" s="6" t="n">
-        <v>45714.81324074074</v>
+        <v>45685.94248842593</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>45714.81491898148</v>
-      </c>
-      <c r="F10" s="5" t="inlineStr">
-        <is>
-          <t>0 a 02 dias</t>
-        </is>
-      </c>
-      <c r="G10" s="5" t="inlineStr">
-        <is>
-          <t>0 a 02 dias</t>
+        <v>45692.75714120371</v>
+      </c>
+      <c r="F10" s="7" t="inlineStr">
+        <is>
+          <t>31 dias ou +</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr">
+        <is>
+          <t>31 dias ou +</t>
         </is>
       </c>
       <c r="H10" s="5" t="inlineStr">
         <is>
-          <t>ERXMWN</t>
+          <t>2WAY2A</t>
         </is>
       </c>
       <c r="I10" s="5" t="inlineStr">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="J10" s="5" t="inlineStr">
         <is>
-          <t>Lucas Gabriel Barbosa Machado</t>
+          <t>Bianca Carolina Marcos</t>
         </is>
       </c>
       <c r="K10" s="5" t="inlineStr">
@@ -2270,10 +2270,10 @@
         </is>
       </c>
       <c r="M10" s="6" t="n">
-        <v>45714.8125</v>
+        <v>45685.94097222222</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>6607734</v>
+        <v>6573284</v>
       </c>
       <c r="O10" s="5" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
       </c>
       <c r="V10" s="5" t="inlineStr">
         <is>
-          <t>Lucas Gabriel Barbosa Machado</t>
+          <t>Ana Leticia Pereira Ometto</t>
         </is>
       </c>
       <c r="W10" s="5" t="inlineStr">
@@ -2322,11 +2322,11 @@
       </c>
       <c r="X10" s="5" t="inlineStr">
         <is>
-          <t>Latam Airlines Brasil</t>
+          <t>Alitalia</t>
         </is>
       </c>
       <c r="Y10" s="5" t="n">
-        <v>2221562159</v>
+        <v>1409175767</v>
       </c>
       <c r="Z10" s="5" t="inlineStr">
         <is>
@@ -2339,10 +2339,10 @@
         </is>
       </c>
       <c r="AB10" s="5" t="n">
-        <v>440.8</v>
+        <v>4812.88</v>
       </c>
       <c r="AC10" s="5" t="n">
-        <v>52.56</v>
+        <v>930.51</v>
       </c>
       <c r="AD10" s="5" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="AH10" s="5" t="n">
-        <v>110.2</v>
+        <v>0</v>
       </c>
       <c r="AI10" s="5" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="AJ10" s="5" t="inlineStr">
         <is>
-          <t>Não foi possível definir o Local de destino!</t>
+          <t>Erro excluindo PNR: Não é possivel excluir a accounting de código: 23990287. A mesma está ligada a conciliação de cartão "PAYMEE 29.01.2025.xls"</t>
         </is>
       </c>
       <c r="AK10" s="5" t="inlineStr">
@@ -2376,22 +2376,22 @@
       </c>
       <c r="AL10" s="5" t="inlineStr">
         <is>
-          <t>Cadastro enviado errado no Benner</t>
+          <t>Conciliação de Cartão</t>
         </is>
       </c>
       <c r="AM10" s="5" t="inlineStr">
         <is>
-          <t>Cadastro incompleto</t>
+          <t>Financeiro Conciliado</t>
         </is>
       </c>
       <c r="AN10" s="5" t="inlineStr">
         <is>
-          <t>Sistema</t>
+          <t>Edição não Permitida</t>
         </is>
       </c>
       <c r="AO10" s="5" t="inlineStr">
         <is>
-          <t>Sistêmico</t>
+          <t>Qualidade dos dados</t>
         </is>
       </c>
       <c r="AP10" s="5" t="inlineStr">
@@ -2401,41 +2401,41 @@
       </c>
       <c r="AQ10" s="5" t="inlineStr">
         <is>
-          <t>Suporte Benner</t>
+          <t>Operações - ZUPPER</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
-        <v>21725052</v>
+        <v>21541194</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>22648717</v>
+        <v>22493969</v>
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>ACC01</t>
+          <t>ACC04</t>
         </is>
       </c>
       <c r="D11" s="6" t="n">
-        <v>45714.86890046296</v>
+        <v>45685.94248842593</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>45714.87149305556</v>
-      </c>
-      <c r="F11" s="5" t="inlineStr">
-        <is>
-          <t>0 a 02 dias</t>
-        </is>
-      </c>
-      <c r="G11" s="5" t="inlineStr">
-        <is>
-          <t>0 a 02 dias</t>
+        <v>45692.75714120371</v>
+      </c>
+      <c r="F11" s="7" t="inlineStr">
+        <is>
+          <t>31 dias ou +</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr">
+        <is>
+          <t>31 dias ou +</t>
         </is>
       </c>
       <c r="H11" s="5" t="inlineStr">
         <is>
-          <t>DIW9GM</t>
+          <t>2WAY2A</t>
         </is>
       </c>
       <c r="I11" s="5" t="inlineStr">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="J11" s="5" t="inlineStr">
         <is>
-          <t>Rosimery Lima</t>
+          <t>Aurora Maria Pereira Ometto</t>
         </is>
       </c>
       <c r="K11" s="5" t="inlineStr">
@@ -2459,10 +2459,10 @@
         </is>
       </c>
       <c r="M11" s="6" t="n">
-        <v>45714.86805555555</v>
+        <v>45685.94097222222</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>6608203</v>
+        <v>6573284</v>
       </c>
       <c r="O11" s="5" t="inlineStr">
         <is>
@@ -2476,12 +2476,12 @@
       </c>
       <c r="Q11" s="5" t="inlineStr">
         <is>
-          <t>Cartão de crédito</t>
+          <t>Invoice</t>
         </is>
       </c>
       <c r="R11" s="5" t="inlineStr">
         <is>
-          <t>Cartão de crédito</t>
+          <t>Cartão convênio</t>
         </is>
       </c>
       <c r="S11" s="5" t="inlineStr">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="V11" s="5" t="inlineStr">
         <is>
-          <t>Rosimery Maria Mauricio de Lima</t>
+          <t>Ana Leticia Pereira Ometto</t>
         </is>
       </c>
       <c r="W11" s="5" t="inlineStr">
@@ -2511,11 +2511,11 @@
       </c>
       <c r="X11" s="5" t="inlineStr">
         <is>
-          <t>Azul Linhas Aereas</t>
+          <t>Alitalia</t>
         </is>
       </c>
       <c r="Y11" s="5" t="n">
-        <v>3689913456</v>
+        <v>917576970</v>
       </c>
       <c r="Z11" s="5" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         </is>
       </c>
       <c r="AB11" s="5" t="n">
-        <v>796.1900000000001</v>
+        <v>3840.82</v>
       </c>
       <c r="AC11" s="5" t="n">
-        <v>113.34</v>
+        <v>930.51</v>
       </c>
       <c r="AD11" s="5" t="n">
         <v>0</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="AH11" s="5" t="n">
-        <v>71.66</v>
+        <v>0</v>
       </c>
       <c r="AI11" s="5" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="AJ11" s="5" t="inlineStr">
         <is>
-          <t>Não foi possível definir o Local de destino!</t>
+          <t>Erro excluindo PNR: Não é possivel excluir a accounting de código: 23990287. A mesma está ligada a conciliação de cartão "PAYMEE 29.01.2025.xls"</t>
         </is>
       </c>
       <c r="AK11" s="5" t="inlineStr">
@@ -2565,22 +2565,22 @@
       </c>
       <c r="AL11" s="5" t="inlineStr">
         <is>
-          <t>Cadastro enviado errado no Benner</t>
+          <t>Conciliação de Cartão</t>
         </is>
       </c>
       <c r="AM11" s="5" t="inlineStr">
         <is>
-          <t>Cadastro incompleto</t>
+          <t>Financeiro Conciliado</t>
         </is>
       </c>
       <c r="AN11" s="5" t="inlineStr">
         <is>
-          <t>Sistema</t>
+          <t>Edição não Permitida</t>
         </is>
       </c>
       <c r="AO11" s="5" t="inlineStr">
         <is>
-          <t>Sistêmico</t>
+          <t>Qualidade dos dados</t>
         </is>
       </c>
       <c r="AP11" s="5" t="inlineStr">
@@ -2590,194 +2590,2651 @@
       </c>
       <c r="AQ11" s="5" t="inlineStr">
         <is>
-          <t>Suporte Benner</t>
+          <t>Operações - ZUPPER</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
-        <v>21725274</v>
+        <v>21541194</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>22648961</v>
+        <v>22493970</v>
       </c>
       <c r="C12" s="5" t="inlineStr">
         <is>
+          <t>ACC05</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>45685.94248842593</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>45692.75714120371</v>
+      </c>
+      <c r="F12" s="7" t="inlineStr">
+        <is>
+          <t>31 dias ou +</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr">
+        <is>
+          <t>31 dias ou +</t>
+        </is>
+      </c>
+      <c r="H12" s="5" t="inlineStr">
+        <is>
+          <t>2WAY2A</t>
+        </is>
+      </c>
+      <c r="I12" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J12" s="5" t="inlineStr">
+        <is>
+          <t>SANTIAGO PEREIRA OMETTO</t>
+        </is>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="L12" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>45685.94097222222</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>6573284</v>
+      </c>
+      <c r="O12" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P12" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q12" s="5" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="R12" s="5" t="inlineStr">
+        <is>
+          <t>Cartão convênio</t>
+        </is>
+      </c>
+      <c r="S12" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T12" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U12" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Zupper</t>
+        </is>
+      </c>
+      <c r="V12" s="5" t="inlineStr">
+        <is>
+          <t>Ana Leticia Pereira Ometto</t>
+        </is>
+      </c>
+      <c r="W12" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X12" s="5" t="inlineStr">
+        <is>
+          <t>Alitalia</t>
+        </is>
+      </c>
+      <c r="Y12" s="5" t="n">
+        <v>1409175771</v>
+      </c>
+      <c r="Z12" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AA12" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB12" s="5" t="n">
+        <v>509.73</v>
+      </c>
+      <c r="AC12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ12" s="5" t="inlineStr">
+        <is>
+          <t>Erro excluindo PNR: Não é possivel excluir a accounting de código: 23990287. A mesma está ligada a conciliação de cartão "PAYMEE 29.01.2025.xls"</t>
+        </is>
+      </c>
+      <c r="AK12" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AL12" s="5" t="inlineStr">
+        <is>
+          <t>Conciliação de Cartão</t>
+        </is>
+      </c>
+      <c r="AM12" s="5" t="inlineStr">
+        <is>
+          <t>Financeiro Conciliado</t>
+        </is>
+      </c>
+      <c r="AN12" s="5" t="inlineStr">
+        <is>
+          <t>Edição não Permitida</t>
+        </is>
+      </c>
+      <c r="AO12" s="5" t="inlineStr">
+        <is>
+          <t>Qualidade dos dados</t>
+        </is>
+      </c>
+      <c r="AP12" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ12" s="5" t="inlineStr">
+        <is>
+          <t>Operações - ZUPPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="n">
+        <v>21615385</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>22557887</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
           <t>ACC01</t>
         </is>
       </c>
-      <c r="D12" s="6" t="n">
-        <v>45714.89450231481</v>
-      </c>
-      <c r="E12" s="6" t="n">
-        <v>45714.89627314815</v>
-      </c>
-      <c r="F12" s="5" t="inlineStr">
+      <c r="D13" s="6" t="n">
+        <v>45696.05574074074</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>45698.71144675926</v>
+      </c>
+      <c r="F13" s="7" t="inlineStr">
+        <is>
+          <t>24 a 31 dias</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr">
+        <is>
+          <t>24 a 31 dias</t>
+        </is>
+      </c>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t>JQW4KE</t>
+        </is>
+      </c>
+      <c r="I13" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J13" s="5" t="inlineStr">
+        <is>
+          <t>Bruno Batista</t>
+        </is>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="L13" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>45696.05069444444</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>6583156</v>
+      </c>
+      <c r="O13" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P13" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q13" s="5" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="R13" s="5" t="inlineStr">
+        <is>
+          <t>Cartão convênio</t>
+        </is>
+      </c>
+      <c r="S13" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T13" s="5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="U13" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Zupper</t>
+        </is>
+      </c>
+      <c r="V13" s="5" t="inlineStr">
+        <is>
+          <t>Zupper Cartao</t>
+        </is>
+      </c>
+      <c r="W13" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X13" s="5" t="inlineStr">
+        <is>
+          <t>Azul Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y13" s="5" t="n">
+        <v>7553619067</v>
+      </c>
+      <c r="Z13" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AA13" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB13" s="5" t="n">
+        <v>834.9400000000001</v>
+      </c>
+      <c r="AC13" s="5" t="n">
+        <v>104.89</v>
+      </c>
+      <c r="AD13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="5" t="n">
+        <v>208.74</v>
+      </c>
+      <c r="AI13" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ13" s="5" t="inlineStr">
+        <is>
+          <t>Erro excluindo PNR: Não é possivel excluir a accounting de código: 24042460. A mesma está ligada a conciliação de cartão "PAYMEE 07.02.2025.xls"</t>
+        </is>
+      </c>
+      <c r="AK13" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AL13" s="5" t="inlineStr">
+        <is>
+          <t>Conciliação de Cartão</t>
+        </is>
+      </c>
+      <c r="AM13" s="5" t="inlineStr">
+        <is>
+          <t>Financeiro Conciliado</t>
+        </is>
+      </c>
+      <c r="AN13" s="5" t="inlineStr">
+        <is>
+          <t>Edição não Permitida</t>
+        </is>
+      </c>
+      <c r="AO13" s="5" t="inlineStr">
+        <is>
+          <t>Qualidade dos dados</t>
+        </is>
+      </c>
+      <c r="AP13" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ13" s="5" t="inlineStr">
+        <is>
+          <t>Operações - ZUPPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="n">
+        <v>21750117</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>22671468</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>ACC01</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>45718.98342592592</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>45722.63113425926</v>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>0 a 02 dias</t>
         </is>
       </c>
-      <c r="G12" s="5" t="inlineStr">
+      <c r="G14" s="5" t="inlineStr">
+        <is>
+          <t>03 a 05 dias</t>
+        </is>
+      </c>
+      <c r="H14" s="5" t="inlineStr">
+        <is>
+          <t>CWXMZO</t>
+        </is>
+      </c>
+      <c r="I14" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J14" s="5" t="inlineStr">
+        <is>
+          <t>JOSEMAR OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="L14" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>45718.98263888889</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>6616950</v>
+      </c>
+      <c r="O14" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P14" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q14" s="5" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="R14" s="5" t="inlineStr">
+        <is>
+          <t>Cartão convênio</t>
+        </is>
+      </c>
+      <c r="S14" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T14" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U14" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Zupper</t>
+        </is>
+      </c>
+      <c r="V14" s="5" t="inlineStr">
+        <is>
+          <t>Valeria Loureiro Velasques</t>
+        </is>
+      </c>
+      <c r="W14" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X14" s="5" t="inlineStr">
+        <is>
+          <t>Latam Airlines Brasil</t>
+        </is>
+      </c>
+      <c r="Y14" s="5" t="n">
+        <v>2222077351</v>
+      </c>
+      <c r="Z14" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AA14" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB14" s="5" t="n">
+        <v>439.12</v>
+      </c>
+      <c r="AC14" s="5" t="n">
+        <v>44.27</v>
+      </c>
+      <c r="AD14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="5" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="AI14" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ14" s="5" t="inlineStr">
+        <is>
+          <t>Não foi possível definir o Local de destino!</t>
+        </is>
+      </c>
+      <c r="AK14" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AL14" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro enviado errado no Benner</t>
+        </is>
+      </c>
+      <c r="AM14" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro incompleto</t>
+        </is>
+      </c>
+      <c r="AN14" s="5" t="inlineStr">
+        <is>
+          <t>Sistema</t>
+        </is>
+      </c>
+      <c r="AO14" s="5" t="inlineStr">
+        <is>
+          <t>Sistêmico</t>
+        </is>
+      </c>
+      <c r="AP14" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ14" s="5" t="inlineStr">
+        <is>
+          <t>Suporte Benner</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="n">
+        <v>21769419</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>22689195</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>ACC01</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>45722.65287037037</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>45722.65905092593</v>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>0 a 02 dias</t>
         </is>
       </c>
-      <c r="H12" s="5" t="inlineStr">
-        <is>
-          <t>TH383S</t>
-        </is>
-      </c>
-      <c r="I12" s="5" t="inlineStr">
+      <c r="G15" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H15" s="5" t="inlineStr">
+        <is>
+          <t>WQ29NK</t>
+        </is>
+      </c>
+      <c r="I15" s="5" t="inlineStr">
         <is>
           <t>EBOOKING</t>
         </is>
       </c>
-      <c r="J12" s="5" t="inlineStr">
-        <is>
-          <t>Sergio Faria</t>
-        </is>
-      </c>
-      <c r="K12" s="5" t="inlineStr">
+      <c r="J15" s="5" t="inlineStr">
+        <is>
+          <t>Renan Pinheiro</t>
+        </is>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
         <is>
           <t>Zupper</t>
         </is>
       </c>
-      <c r="L12" s="5" t="inlineStr">
+      <c r="L15" s="5" t="inlineStr">
         <is>
           <t>Zupper</t>
         </is>
       </c>
-      <c r="M12" s="6" t="n">
-        <v>45714.89375</v>
-      </c>
-      <c r="N12" s="5" t="n">
-        <v>6608374</v>
-      </c>
-      <c r="O12" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P12" s="5" t="inlineStr">
+      <c r="M15" s="6" t="n">
+        <v>45722.65208333333</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>6625147</v>
+      </c>
+      <c r="O15" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P15" s="5" t="inlineStr">
         <is>
           <t>OFF LINE</t>
         </is>
       </c>
-      <c r="Q12" s="5" t="inlineStr">
+      <c r="Q15" s="5" t="inlineStr">
         <is>
           <t>Cartão de crédito</t>
         </is>
       </c>
-      <c r="R12" s="5" t="inlineStr">
+      <c r="R15" s="5" t="inlineStr">
         <is>
           <t>Cartão de crédito</t>
         </is>
       </c>
-      <c r="S12" s="5" t="inlineStr">
+      <c r="S15" s="5" t="inlineStr">
         <is>
           <t>Aéreo</t>
         </is>
       </c>
-      <c r="T12" s="5" t="inlineStr">
+      <c r="T15" s="5" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="U12" s="5" t="inlineStr">
+      <c r="U15" s="5" t="inlineStr">
         <is>
           <t>Grupo Zupper</t>
         </is>
       </c>
-      <c r="V12" s="5" t="inlineStr">
-        <is>
-          <t>Sergio Maciel Faria</t>
-        </is>
-      </c>
-      <c r="W12" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X12" s="5" t="inlineStr">
+      <c r="V15" s="5" t="inlineStr">
+        <is>
+          <t>Maria das Gracas da Silva Pinheiro</t>
+        </is>
+      </c>
+      <c r="W15" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X15" s="5" t="inlineStr">
         <is>
           <t>Azul Linhas Aereas</t>
         </is>
       </c>
-      <c r="Y12" s="5" t="n">
-        <v>438599009</v>
-      </c>
-      <c r="Z12" s="5" t="inlineStr">
+      <c r="Y15" s="5" t="n">
+        <v>6743445796</v>
+      </c>
+      <c r="Z15" s="5" t="inlineStr">
         <is>
           <t>ZUPPER</t>
         </is>
       </c>
-      <c r="AA12" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB12" s="5" t="n">
-        <v>636.11</v>
-      </c>
-      <c r="AC12" s="5" t="n">
-        <v>48.75</v>
-      </c>
-      <c r="AD12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="5" t="n">
-        <v>57.25</v>
-      </c>
-      <c r="AI12" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AJ12" s="5" t="inlineStr">
+      <c r="AA15" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB15" s="5" t="n">
+        <v>590.36</v>
+      </c>
+      <c r="AC15" s="5" t="n">
+        <v>98.72</v>
+      </c>
+      <c r="AD15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="5" t="n">
+        <v>53.13</v>
+      </c>
+      <c r="AI15" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ15" s="5" t="inlineStr">
         <is>
           <t>Não foi possível definir o Local de destino!</t>
         </is>
       </c>
-      <c r="AK12" s="5" t="inlineStr">
+      <c r="AK15" s="5" t="inlineStr">
         <is>
           <t>ZUPPER</t>
         </is>
       </c>
-      <c r="AL12" s="5" t="inlineStr">
+      <c r="AL15" s="5" t="inlineStr">
         <is>
           <t>Cadastro enviado errado no Benner</t>
         </is>
       </c>
-      <c r="AM12" s="5" t="inlineStr">
+      <c r="AM15" s="5" t="inlineStr">
         <is>
           <t>Cadastro incompleto</t>
         </is>
       </c>
-      <c r="AN12" s="5" t="inlineStr">
+      <c r="AN15" s="5" t="inlineStr">
         <is>
           <t>Sistema</t>
         </is>
       </c>
-      <c r="AO12" s="5" t="inlineStr">
+      <c r="AO15" s="5" t="inlineStr">
         <is>
           <t>Sistêmico</t>
         </is>
       </c>
-      <c r="AP12" s="5" t="inlineStr">
+      <c r="AP15" s="5" t="inlineStr">
         <is>
           <t>ZUPPER VIAGENS</t>
         </is>
       </c>
-      <c r="AQ12" s="5" t="inlineStr">
+      <c r="AQ15" s="5" t="inlineStr">
+        <is>
+          <t>Suporte Benner</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="n">
+        <v>21763843</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>22683922</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>ACC01</t>
+        </is>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>45721.78828703704</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>45722.63166666667</v>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G16" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H16" s="5" t="inlineStr">
+        <is>
+          <t>RFEPPL</t>
+        </is>
+      </c>
+      <c r="I16" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J16" s="5" t="inlineStr">
+        <is>
+          <t>Edson Silva De Santana</t>
+        </is>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="L16" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="M16" s="6" t="n">
+        <v>45721.7875</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>6623270</v>
+      </c>
+      <c r="O16" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P16" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q16" s="5" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="R16" s="5" t="inlineStr">
+        <is>
+          <t>Cartão convênio</t>
+        </is>
+      </c>
+      <c r="S16" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T16" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U16" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Zupper</t>
+        </is>
+      </c>
+      <c r="V16" s="5" t="inlineStr">
+        <is>
+          <t>Carla Beatriz Costa Bacelar</t>
+        </is>
+      </c>
+      <c r="W16" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X16" s="5" t="inlineStr">
+        <is>
+          <t>Azul Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y16" s="5" t="n">
+        <v>6714270627</v>
+      </c>
+      <c r="Z16" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AA16" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB16" s="5" t="n">
+        <v>361.74</v>
+      </c>
+      <c r="AC16" s="5" t="n">
+        <v>44.27</v>
+      </c>
+      <c r="AD16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="5" t="n">
+        <v>28.94</v>
+      </c>
+      <c r="AI16" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ16" s="5" t="inlineStr">
+        <is>
+          <t>Erro ao processar PNR  | Aguarde alguns instantes, esta venda esta sendo processada no momento!</t>
+        </is>
+      </c>
+      <c r="AK16" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AL16" s="5" t="inlineStr">
+        <is>
+          <t>Reprocessar Venda</t>
+        </is>
+      </c>
+      <c r="AM16" s="5" t="inlineStr">
+        <is>
+          <t>Processo de integração</t>
+        </is>
+      </c>
+      <c r="AN16" s="5" t="inlineStr">
+        <is>
+          <t>Sistema</t>
+        </is>
+      </c>
+      <c r="AO16" s="5" t="inlineStr">
+        <is>
+          <t>Sistêmico</t>
+        </is>
+      </c>
+      <c r="AP16" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ16" s="5" t="inlineStr">
+        <is>
+          <t>Operações - ZUPPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n">
+        <v>21760385</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>22680216</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>ACC01</t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>45721.42513888889</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>45722.63091435185</v>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G17" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H17" s="5" t="inlineStr">
+        <is>
+          <t>VQSCQH</t>
+        </is>
+      </c>
+      <c r="I17" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J17" s="5" t="inlineStr">
+        <is>
+          <t>Luziana Soares Pereira</t>
+        </is>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="L17" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="M17" s="6" t="n">
+        <v>45721.42430555556</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>6621788</v>
+      </c>
+      <c r="O17" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P17" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q17" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="R17" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="S17" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T17" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U17" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Zupper</t>
+        </is>
+      </c>
+      <c r="V17" s="5" t="inlineStr">
+        <is>
+          <t>Sandra de Jesus Soares</t>
+        </is>
+      </c>
+      <c r="W17" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X17" s="5" t="inlineStr">
+        <is>
+          <t>Azul Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y17" s="5" t="n">
+        <v>8424176676</v>
+      </c>
+      <c r="Z17" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AA17" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB17" s="5" t="n">
+        <v>510.28</v>
+      </c>
+      <c r="AC17" s="5" t="n">
+        <v>54.45</v>
+      </c>
+      <c r="AD17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="5" t="n">
+        <v>45.93</v>
+      </c>
+      <c r="AI17" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ17" s="5" t="inlineStr">
+        <is>
+          <t>Não foi possível definir o Local de destino!</t>
+        </is>
+      </c>
+      <c r="AK17" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AL17" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro enviado errado no Benner</t>
+        </is>
+      </c>
+      <c r="AM17" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro incompleto</t>
+        </is>
+      </c>
+      <c r="AN17" s="5" t="inlineStr">
+        <is>
+          <t>Sistema</t>
+        </is>
+      </c>
+      <c r="AO17" s="5" t="inlineStr">
+        <is>
+          <t>Sistêmico</t>
+        </is>
+      </c>
+      <c r="AP17" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ17" s="5" t="inlineStr">
+        <is>
+          <t>Suporte Benner</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="n">
+        <v>21760613</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>22680444</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>ACC01</t>
+        </is>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>45721.45565972223</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>45722.73288194444</v>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G18" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H18" s="5" t="inlineStr">
+        <is>
+          <t>FQPWEK</t>
+        </is>
+      </c>
+      <c r="I18" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J18" s="5" t="inlineStr">
+        <is>
+          <t>Samanta Milani</t>
+        </is>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="L18" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="M18" s="6" t="n">
+        <v>45721.45486111111</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>6621979</v>
+      </c>
+      <c r="O18" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P18" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q18" s="5" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="R18" s="5" t="inlineStr">
+        <is>
+          <t>Cartão convênio</t>
+        </is>
+      </c>
+      <c r="S18" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T18" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U18" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Zupper</t>
+        </is>
+      </c>
+      <c r="V18" s="5" t="inlineStr">
+        <is>
+          <t>Samanta Margarida Milani</t>
+        </is>
+      </c>
+      <c r="W18" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X18" s="5" t="inlineStr">
+        <is>
+          <t>Gol Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y18" s="5" t="n">
+        <v>2133393469</v>
+      </c>
+      <c r="Z18" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AA18" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB18" s="5" t="n">
+        <v>271.9</v>
+      </c>
+      <c r="AC18" s="5" t="n">
+        <v>52.56</v>
+      </c>
+      <c r="AD18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="5" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="AI18" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ18" s="5" t="inlineStr">
+        <is>
+          <t>Não foi possível definir o Local de destino!</t>
+        </is>
+      </c>
+      <c r="AK18" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AL18" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro enviado errado no Benner</t>
+        </is>
+      </c>
+      <c r="AM18" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro incompleto</t>
+        </is>
+      </c>
+      <c r="AN18" s="5" t="inlineStr">
+        <is>
+          <t>Sistema</t>
+        </is>
+      </c>
+      <c r="AO18" s="5" t="inlineStr">
+        <is>
+          <t>Sistêmico</t>
+        </is>
+      </c>
+      <c r="AP18" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ18" s="5" t="inlineStr">
+        <is>
+          <t>Suporte Benner</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="n">
+        <v>21760615</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>22680446</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>ACC01</t>
+        </is>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>45721.45635416666</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>45722.73303240741</v>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G19" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H19" s="5" t="inlineStr">
+        <is>
+          <t>NQFRXH</t>
+        </is>
+      </c>
+      <c r="I19" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J19" s="5" t="inlineStr">
+        <is>
+          <t>Samanta Milani</t>
+        </is>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="L19" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="M19" s="6" t="n">
+        <v>45721.45555555556</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>6621978</v>
+      </c>
+      <c r="O19" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P19" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q19" s="5" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="R19" s="5" t="inlineStr">
+        <is>
+          <t>Cartão convênio</t>
+        </is>
+      </c>
+      <c r="S19" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T19" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U19" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Zupper</t>
+        </is>
+      </c>
+      <c r="V19" s="5" t="inlineStr">
+        <is>
+          <t>Samanta Margarida Milani</t>
+        </is>
+      </c>
+      <c r="W19" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X19" s="5" t="inlineStr">
+        <is>
+          <t>Azul Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y19" s="5" t="n">
+        <v>9082976160</v>
+      </c>
+      <c r="Z19" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AA19" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB19" s="5" t="n">
+        <v>214.8</v>
+      </c>
+      <c r="AC19" s="5" t="n">
+        <v>51.07</v>
+      </c>
+      <c r="AD19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="5" t="n">
+        <v>10.74</v>
+      </c>
+      <c r="AI19" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ19" s="5" t="inlineStr">
+        <is>
+          <t>Não foi possível definir o Local de destino!</t>
+        </is>
+      </c>
+      <c r="AK19" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AL19" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro enviado errado no Benner</t>
+        </is>
+      </c>
+      <c r="AM19" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro incompleto</t>
+        </is>
+      </c>
+      <c r="AN19" s="5" t="inlineStr">
+        <is>
+          <t>Sistema</t>
+        </is>
+      </c>
+      <c r="AO19" s="5" t="inlineStr">
+        <is>
+          <t>Sistêmico</t>
+        </is>
+      </c>
+      <c r="AP19" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ19" s="5" t="inlineStr">
+        <is>
+          <t>Suporte Benner</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="n">
+        <v>21751488</v>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>22672429</v>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>ACC01</t>
+        </is>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>45719.4431712963</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>45722.63134259259</v>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G20" s="5" t="inlineStr">
+        <is>
+          <t>03 a 05 dias</t>
+        </is>
+      </c>
+      <c r="H20" s="5" t="inlineStr">
+        <is>
+          <t>HQZGSH</t>
+        </is>
+      </c>
+      <c r="I20" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J20" s="5" t="inlineStr">
+        <is>
+          <t>Maxwel Costa</t>
+        </is>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="L20" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="M20" s="6" t="n">
+        <v>45719.44236111111</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>6617433</v>
+      </c>
+      <c r="O20" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P20" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q20" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="R20" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="S20" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T20" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U20" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Zupper</t>
+        </is>
+      </c>
+      <c r="V20" s="5" t="inlineStr">
+        <is>
+          <t>Maxwel da Silva Costa</t>
+        </is>
+      </c>
+      <c r="W20" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X20" s="5" t="inlineStr">
+        <is>
+          <t>Azul Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y20" s="5" t="n">
+        <v>1777939791</v>
+      </c>
+      <c r="Z20" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AA20" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB20" s="5" t="n">
+        <v>394.92</v>
+      </c>
+      <c r="AC20" s="5" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="AD20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="5" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="AI20" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ20" s="5" t="inlineStr">
+        <is>
+          <t>Não foi possível definir o Local de destino!</t>
+        </is>
+      </c>
+      <c r="AK20" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AL20" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro enviado errado no Benner</t>
+        </is>
+      </c>
+      <c r="AM20" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro incompleto</t>
+        </is>
+      </c>
+      <c r="AN20" s="5" t="inlineStr">
+        <is>
+          <t>Sistema</t>
+        </is>
+      </c>
+      <c r="AO20" s="5" t="inlineStr">
+        <is>
+          <t>Sistêmico</t>
+        </is>
+      </c>
+      <c r="AP20" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ20" s="5" t="inlineStr">
+        <is>
+          <t>Suporte Benner</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="n">
+        <v>21771095</v>
+      </c>
+      <c r="B21" s="5" t="n">
+        <v>22690940</v>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>ACC01</t>
+        </is>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>45722.83274305556</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>45722.83515046296</v>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G21" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H21" s="5" t="inlineStr">
+        <is>
+          <t>FLCY2D</t>
+        </is>
+      </c>
+      <c r="I21" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J21" s="5" t="inlineStr">
+        <is>
+          <t>JOSE CANDIDO NETO</t>
+        </is>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="L21" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="M21" s="6" t="n">
+        <v>45722.83194444444</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>6625850</v>
+      </c>
+      <c r="O21" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P21" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q21" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="R21" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="S21" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T21" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U21" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Zupper</t>
+        </is>
+      </c>
+      <c r="V21" s="5" t="inlineStr">
+        <is>
+          <t>Jose Candido Neto</t>
+        </is>
+      </c>
+      <c r="W21" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X21" s="5" t="inlineStr">
+        <is>
+          <t>Azul Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y21" s="5" t="n">
+        <v>9983207657</v>
+      </c>
+      <c r="Z21" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AA21" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB21" s="5" t="n">
+        <v>818.28</v>
+      </c>
+      <c r="AC21" s="5" t="n">
+        <v>77.64</v>
+      </c>
+      <c r="AD21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="5" t="n">
+        <v>220.94</v>
+      </c>
+      <c r="AI21" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ21" s="5" t="inlineStr">
+        <is>
+          <t>Não foi possível definir o Local de destino!</t>
+        </is>
+      </c>
+      <c r="AK21" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AL21" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro enviado errado no Benner</t>
+        </is>
+      </c>
+      <c r="AM21" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro incompleto</t>
+        </is>
+      </c>
+      <c r="AN21" s="5" t="inlineStr">
+        <is>
+          <t>Sistema</t>
+        </is>
+      </c>
+      <c r="AO21" s="5" t="inlineStr">
+        <is>
+          <t>Sistêmico</t>
+        </is>
+      </c>
+      <c r="AP21" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ21" s="5" t="inlineStr">
+        <is>
+          <t>Suporte Benner</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="n">
+        <v>21771095</v>
+      </c>
+      <c r="B22" s="5" t="n">
+        <v>22690941</v>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>ACC02</t>
+        </is>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>45722.83274305556</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>45722.83515046296</v>
+      </c>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G22" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H22" s="5" t="inlineStr">
+        <is>
+          <t>FLCY2D</t>
+        </is>
+      </c>
+      <c r="I22" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J22" s="5" t="inlineStr">
+        <is>
+          <t>IRACI DIAS DE SALES</t>
+        </is>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="L22" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="M22" s="6" t="n">
+        <v>45722.83194444444</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>6625850</v>
+      </c>
+      <c r="O22" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P22" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q22" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="R22" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="S22" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T22" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U22" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Zupper</t>
+        </is>
+      </c>
+      <c r="V22" s="5" t="inlineStr">
+        <is>
+          <t>Jose Candido Neto</t>
+        </is>
+      </c>
+      <c r="W22" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X22" s="5" t="inlineStr">
+        <is>
+          <t>Azul Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y22" s="5" t="n">
+        <v>1482609082</v>
+      </c>
+      <c r="Z22" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AA22" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB22" s="5" t="n">
+        <v>818.28</v>
+      </c>
+      <c r="AC22" s="5" t="n">
+        <v>77.64</v>
+      </c>
+      <c r="AD22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ22" s="5" t="inlineStr">
+        <is>
+          <t>Não foi possível definir o Local de destino!</t>
+        </is>
+      </c>
+      <c r="AK22" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AL22" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro enviado errado no Benner</t>
+        </is>
+      </c>
+      <c r="AM22" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro incompleto</t>
+        </is>
+      </c>
+      <c r="AN22" s="5" t="inlineStr">
+        <is>
+          <t>Sistema</t>
+        </is>
+      </c>
+      <c r="AO22" s="5" t="inlineStr">
+        <is>
+          <t>Sistêmico</t>
+        </is>
+      </c>
+      <c r="AP22" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ22" s="5" t="inlineStr">
+        <is>
+          <t>Suporte Benner</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="n">
+        <v>21771095</v>
+      </c>
+      <c r="B23" s="5" t="n">
+        <v>22690942</v>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>ACC03</t>
+        </is>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>45722.83274305556</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>45722.83515046296</v>
+      </c>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G23" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H23" s="5" t="inlineStr">
+        <is>
+          <t>FLCY2D</t>
+        </is>
+      </c>
+      <c r="I23" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J23" s="5" t="inlineStr">
+        <is>
+          <t>JOSE JARIO CANDIDO</t>
+        </is>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="L23" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="M23" s="6" t="n">
+        <v>45722.83194444444</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>6625850</v>
+      </c>
+      <c r="O23" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P23" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q23" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="R23" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="S23" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T23" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U23" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Zupper</t>
+        </is>
+      </c>
+      <c r="V23" s="5" t="inlineStr">
+        <is>
+          <t>Jose Candido Neto</t>
+        </is>
+      </c>
+      <c r="W23" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X23" s="5" t="inlineStr">
+        <is>
+          <t>Azul Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y23" s="5" t="n">
+        <v>5184828038</v>
+      </c>
+      <c r="Z23" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AA23" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB23" s="5" t="n">
+        <v>818.28</v>
+      </c>
+      <c r="AC23" s="5" t="n">
+        <v>77.64</v>
+      </c>
+      <c r="AD23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ23" s="5" t="inlineStr">
+        <is>
+          <t>Não foi possível definir o Local de destino!</t>
+        </is>
+      </c>
+      <c r="AK23" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AL23" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro enviado errado no Benner</t>
+        </is>
+      </c>
+      <c r="AM23" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro incompleto</t>
+        </is>
+      </c>
+      <c r="AN23" s="5" t="inlineStr">
+        <is>
+          <t>Sistema</t>
+        </is>
+      </c>
+      <c r="AO23" s="5" t="inlineStr">
+        <is>
+          <t>Sistêmico</t>
+        </is>
+      </c>
+      <c r="AP23" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ23" s="5" t="inlineStr">
+        <is>
+          <t>Suporte Benner</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="n">
+        <v>21771130</v>
+      </c>
+      <c r="B24" s="5" t="n">
+        <v>22690970</v>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>ACC01</t>
+        </is>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>45722.83831018519</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>45722.84020833333</v>
+      </c>
+      <c r="F24" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G24" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H24" s="5" t="inlineStr">
+        <is>
+          <t>RI23QS</t>
+        </is>
+      </c>
+      <c r="I24" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J24" s="5" t="inlineStr">
+        <is>
+          <t>Elinaldo De siqueira</t>
+        </is>
+      </c>
+      <c r="K24" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="L24" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="M24" s="6" t="n">
+        <v>45722.8375</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>6625865</v>
+      </c>
+      <c r="O24" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P24" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q24" s="5" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="R24" s="5" t="inlineStr">
+        <is>
+          <t>Cartão convênio</t>
+        </is>
+      </c>
+      <c r="S24" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T24" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U24" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Zupper</t>
+        </is>
+      </c>
+      <c r="V24" s="5" t="inlineStr">
+        <is>
+          <t>Pedro Henrique Brasil de Lira</t>
+        </is>
+      </c>
+      <c r="W24" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X24" s="5" t="inlineStr">
+        <is>
+          <t>Azul Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y24" s="5" t="n">
+        <v>3810345572</v>
+      </c>
+      <c r="Z24" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AA24" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB24" s="5" t="n">
+        <v>1618.63</v>
+      </c>
+      <c r="AC24" s="5" t="n">
+        <v>58.89</v>
+      </c>
+      <c r="AD24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="5" t="n">
+        <v>145.68</v>
+      </c>
+      <c r="AI24" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ24" s="5" t="inlineStr">
+        <is>
+          <t>Não foi possível definir o Local de destino!</t>
+        </is>
+      </c>
+      <c r="AK24" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AL24" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro enviado errado no Benner</t>
+        </is>
+      </c>
+      <c r="AM24" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro incompleto</t>
+        </is>
+      </c>
+      <c r="AN24" s="5" t="inlineStr">
+        <is>
+          <t>Sistema</t>
+        </is>
+      </c>
+      <c r="AO24" s="5" t="inlineStr">
+        <is>
+          <t>Sistêmico</t>
+        </is>
+      </c>
+      <c r="AP24" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ24" s="5" t="inlineStr">
+        <is>
+          <t>Suporte Benner</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="n">
+        <v>21767737</v>
+      </c>
+      <c r="B25" s="5" t="n">
+        <v>22687463</v>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>ACC01</t>
+        </is>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>45722.52450231482</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>45722.6321875</v>
+      </c>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G25" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H25" s="5" t="inlineStr">
+        <is>
+          <t>SHBVKF</t>
+        </is>
+      </c>
+      <c r="I25" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J25" s="5" t="inlineStr">
+        <is>
+          <t>Ana Luiza Camara</t>
+        </is>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="L25" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="M25" s="6" t="n">
+        <v>45722.52361111111</v>
+      </c>
+      <c r="N25" s="5" t="n">
+        <v>6624617</v>
+      </c>
+      <c r="O25" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P25" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q25" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="R25" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="S25" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T25" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U25" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Zupper</t>
+        </is>
+      </c>
+      <c r="V25" s="5" t="inlineStr">
+        <is>
+          <t>Ana Luiza da Silva Camara</t>
+        </is>
+      </c>
+      <c r="W25" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X25" s="5" t="inlineStr">
+        <is>
+          <t>Azul Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y25" s="5" t="n">
+        <v>9477197993</v>
+      </c>
+      <c r="Z25" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AA25" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB25" s="5" t="n">
+        <v>507.18</v>
+      </c>
+      <c r="AC25" s="5" t="n">
+        <v>113.34</v>
+      </c>
+      <c r="AD25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="5" t="n">
+        <v>45.65</v>
+      </c>
+      <c r="AI25" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ25" s="5" t="inlineStr">
+        <is>
+          <t>Não foi possível definir o Local de destino!</t>
+        </is>
+      </c>
+      <c r="AK25" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AL25" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro enviado errado no Benner</t>
+        </is>
+      </c>
+      <c r="AM25" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro incompleto</t>
+        </is>
+      </c>
+      <c r="AN25" s="5" t="inlineStr">
+        <is>
+          <t>Sistema</t>
+        </is>
+      </c>
+      <c r="AO25" s="5" t="inlineStr">
+        <is>
+          <t>Sistêmico</t>
+        </is>
+      </c>
+      <c r="AP25" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ25" s="5" t="inlineStr">
         <is>
           <t>Suporte Benner</t>
         </is>

--- a/PROCESSADO ERRO/EMPRESAS/Relatorio - ZUPPER VIAGENS.xlsx
+++ b/PROCESSADO ERRO/EMPRESAS/Relatorio - ZUPPER VIAGENS.xlsx
@@ -18,7 +18,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -41,6 +41,9 @@
     <font>
       <b val="1"/>
       <color rgb="00591F6A"/>
+    </font>
+    <font>
+      <color rgb="00FF0000"/>
     </font>
   </fonts>
   <fills count="4">
@@ -90,7 +93,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -106,6 +109,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -473,7 +479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,64 +706,62 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
-        <v>21945094</v>
+        <v>22119509</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>22841165</v>
+        <v>23001637</v>
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
-          <t>ACC02</t>
+          <t>ACC01</t>
         </is>
       </c>
       <c r="D2" s="6" t="n">
-        <v>45754.7766087963</v>
+        <v>45779.71881944445</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>45754.78501157407</v>
-      </c>
-      <c r="F2" s="5" t="inlineStr">
-        <is>
-          <t>0 a 02 dias</t>
-        </is>
-      </c>
-      <c r="G2" s="5" t="inlineStr">
-        <is>
-          <t>0 a 02 dias</t>
+        <v>45786.43270833333</v>
+      </c>
+      <c r="F2" s="7" t="inlineStr">
+        <is>
+          <t>16 a 23 dias</t>
+        </is>
+      </c>
+      <c r="G2" s="7" t="inlineStr">
+        <is>
+          <t>16 a 23 dias</t>
         </is>
       </c>
       <c r="H2" s="5" t="inlineStr">
         <is>
-          <t>LGGLPC</t>
+          <t>LGNXQM</t>
         </is>
       </c>
       <c r="I2" s="5" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>EBOOKING</t>
         </is>
       </c>
       <c r="J2" s="5" t="inlineStr">
         <is>
-          <t>DEBORA SIQUEIRA SOUZA SANTOS</t>
+          <t>DIOGO OLIVEIRA</t>
         </is>
       </c>
       <c r="K2" s="5" t="inlineStr">
         <is>
-          <t>Kaique Ferreira Aguiar</t>
+          <t>Zupper</t>
         </is>
       </c>
       <c r="L2" s="5" t="inlineStr">
         <is>
-          <t>Kaique Ferreira Aguiar</t>
+          <t>Zupper</t>
         </is>
       </c>
       <c r="M2" s="6" t="n">
-        <v>45754.77638888889</v>
-      </c>
-      <c r="N2" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>45779.71805555555</v>
+      </c>
+      <c r="N2" s="5" t="n">
+        <v>6690977</v>
       </c>
       <c r="O2" s="5" t="inlineStr">
         <is>
@@ -796,7 +800,7 @@
       </c>
       <c r="V2" s="5" t="inlineStr">
         <is>
-          <t>Zupper Cartao</t>
+          <t>Helena Bacelar</t>
         </is>
       </c>
       <c r="W2" s="5" t="inlineStr">
@@ -810,7 +814,7 @@
         </is>
       </c>
       <c r="Y2" s="5" t="n">
-        <v>2227218978</v>
+        <v>2230548609</v>
       </c>
       <c r="Z2" s="5" t="inlineStr">
         <is>
@@ -823,10 +827,10 @@
         </is>
       </c>
       <c r="AB2" s="5" t="n">
-        <v>1444.64</v>
+        <v>338.96</v>
       </c>
       <c r="AC2" s="5" t="n">
-        <v>90.33</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="AD2" s="5" t="n">
         <v>0</v>
@@ -841,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="AH2" s="5" t="n">
-        <v>0</v>
+        <v>313.59</v>
       </c>
       <c r="AI2" s="5" t="inlineStr">
         <is>
@@ -850,7 +854,7 @@
       </c>
       <c r="AJ2" s="5" t="inlineStr">
         <is>
-          <t>36Faltou informar rateio de centro de custo/projeto abaixo da accounting</t>
+          <t xml:space="preserve">Erro excluindo PNR: Não é possivel excluir a accounting de código: 24432964. A mesma está ligada a conciliação de cartão "REDE ANTECIPAÇÃO </t>
         </is>
       </c>
       <c r="AK2" s="5" t="inlineStr">
@@ -860,17 +864,17 @@
       </c>
       <c r="AL2" s="5" t="inlineStr">
         <is>
-          <t>Falta de informação Gerencial</t>
+          <t>Conciliação de Cartão</t>
         </is>
       </c>
       <c r="AM2" s="5" t="inlineStr">
         <is>
-          <t>Campo centro de custo</t>
+          <t>Financeiro Conciliado</t>
         </is>
       </c>
       <c r="AN2" s="5" t="inlineStr">
         <is>
-          <t>Dados Gerenciais</t>
+          <t>Edição não Permitida</t>
         </is>
       </c>
       <c r="AO2" s="5" t="inlineStr">
@@ -891,64 +895,62 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
-        <v>21945094</v>
+        <v>22119509</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>22841081</v>
+        <v>23001638</v>
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>ACC01</t>
+          <t>ACC02</t>
         </is>
       </c>
       <c r="D3" s="6" t="n">
-        <v>45754.7766087963</v>
+        <v>45779.71881944445</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>45754.78501157407</v>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>0 a 02 dias</t>
-        </is>
-      </c>
-      <c r="G3" s="5" t="inlineStr">
-        <is>
-          <t>0 a 02 dias</t>
+        <v>45786.43270833333</v>
+      </c>
+      <c r="F3" s="7" t="inlineStr">
+        <is>
+          <t>16 a 23 dias</t>
+        </is>
+      </c>
+      <c r="G3" s="7" t="inlineStr">
+        <is>
+          <t>16 a 23 dias</t>
         </is>
       </c>
       <c r="H3" s="5" t="inlineStr">
         <is>
-          <t>LGGLPC</t>
+          <t>LGNXQM</t>
         </is>
       </c>
       <c r="I3" s="5" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>EBOOKING</t>
         </is>
       </c>
       <c r="J3" s="5" t="inlineStr">
         <is>
-          <t>EVERTON DANIEL SOUZA SANTOS</t>
+          <t>ALANDA DANTAS</t>
         </is>
       </c>
       <c r="K3" s="5" t="inlineStr">
         <is>
-          <t>Kaique Ferreira Aguiar</t>
+          <t>Zupper</t>
         </is>
       </c>
       <c r="L3" s="5" t="inlineStr">
         <is>
-          <t>Kaique Ferreira Aguiar</t>
+          <t>Zupper</t>
         </is>
       </c>
       <c r="M3" s="6" t="n">
-        <v>45754.77638888889</v>
-      </c>
-      <c r="N3" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>45779.71805555555</v>
+      </c>
+      <c r="N3" s="5" t="n">
+        <v>6690977</v>
       </c>
       <c r="O3" s="5" t="inlineStr">
         <is>
@@ -987,7 +989,7 @@
       </c>
       <c r="V3" s="5" t="inlineStr">
         <is>
-          <t>Zupper Cartao</t>
+          <t>Helena Bacelar</t>
         </is>
       </c>
       <c r="W3" s="5" t="inlineStr">
@@ -1001,7 +1003,7 @@
         </is>
       </c>
       <c r="Y3" s="5" t="n">
-        <v>2227218977</v>
+        <v>2230548610</v>
       </c>
       <c r="Z3" s="5" t="inlineStr">
         <is>
@@ -1014,10 +1016,10 @@
         </is>
       </c>
       <c r="AB3" s="5" t="n">
-        <v>1444.64</v>
+        <v>338.96</v>
       </c>
       <c r="AC3" s="5" t="n">
-        <v>90.33</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="AD3" s="5" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
       </c>
       <c r="AJ3" s="5" t="inlineStr">
         <is>
-          <t>36Faltou informar rateio de centro de custo/projeto abaixo da accounting</t>
+          <t xml:space="preserve">Erro excluindo PNR: Não é possivel excluir a accounting de código: 24432964. A mesma está ligada a conciliação de cartão "REDE ANTECIPAÇÃO </t>
         </is>
       </c>
       <c r="AK3" s="5" t="inlineStr">
@@ -1051,17 +1053,17 @@
       </c>
       <c r="AL3" s="5" t="inlineStr">
         <is>
-          <t>Falta de informação Gerencial</t>
+          <t>Conciliação de Cartão</t>
         </is>
       </c>
       <c r="AM3" s="5" t="inlineStr">
         <is>
-          <t>Campo centro de custo</t>
+          <t>Financeiro Conciliado</t>
         </is>
       </c>
       <c r="AN3" s="5" t="inlineStr">
         <is>
-          <t>Dados Gerenciais</t>
+          <t>Edição não Permitida</t>
         </is>
       </c>
       <c r="AO3" s="5" t="inlineStr">
@@ -1082,21 +1084,21 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
-        <v>21945094</v>
+        <v>22262503</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>22841181</v>
+        <v>23127888</v>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>ACC03</t>
+          <t>ACC01</t>
         </is>
       </c>
       <c r="D4" s="6" t="n">
-        <v>45754.7766087963</v>
+        <v>45805.22170138889</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>45754.78501157407</v>
+        <v>45805.2250462963</v>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
@@ -1110,162 +1112,540 @@
       </c>
       <c r="H4" s="5" t="inlineStr">
         <is>
-          <t>LGGLPC</t>
+          <t>57ZZ8K</t>
         </is>
       </c>
       <c r="I4" s="5" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>TMS</t>
         </is>
       </c>
       <c r="J4" s="5" t="inlineStr">
         <is>
-          <t>DANIEL SERAFIM SIQUEIRA SOUZA SANTOS</t>
+          <t>CARLOS OLIVEIRA</t>
         </is>
       </c>
       <c r="K4" s="5" t="inlineStr">
         <is>
-          <t>Kaique Ferreira Aguiar</t>
+          <t>Tms</t>
         </is>
       </c>
       <c r="L4" s="5" t="inlineStr">
         <is>
-          <t>Kaique Ferreira Aguiar</t>
+          <t>Tms</t>
         </is>
       </c>
       <c r="M4" s="6" t="n">
-        <v>45754.77638888889</v>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>45805.18125</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>332</v>
       </c>
       <c r="O4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Taubate / QHP</t>
         </is>
       </c>
       <c r="P4" s="5" t="inlineStr">
         <is>
+          <t>ON LINE</t>
+        </is>
+      </c>
+      <c r="Q4" s="5" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="R4" s="5" t="inlineStr">
+        <is>
+          <t>Faturado</t>
+        </is>
+      </c>
+      <c r="S4" s="5" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="T4" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U4" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Zupper</t>
+        </is>
+      </c>
+      <c r="V4" s="5" t="inlineStr">
+        <is>
+          <t>Zupper Viagens Internas</t>
+        </is>
+      </c>
+      <c r="W4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z4" s="5" t="inlineStr">
+        <is>
+          <t>KON-OPE-SAO-SUP-KONTIK DESPESAS</t>
+        </is>
+      </c>
+      <c r="AA4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB4" s="5" t="n">
+        <v>502.05</v>
+      </c>
+      <c r="AC4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="5" t="inlineStr">
+        <is>
+          <t>Reserva importada do Sistema TMS. OS: 332</t>
+        </is>
+      </c>
+      <c r="AJ4" s="5" t="inlineStr">
+        <is>
+          <t>Fornecedor não preenchido! (ACC01)</t>
+        </is>
+      </c>
+      <c r="AK4" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AL4" s="5" t="inlineStr">
+        <is>
+          <t>Falta de Fornecedor</t>
+        </is>
+      </c>
+      <c r="AM4" s="5" t="inlineStr">
+        <is>
+          <t>Campo Fornecedor</t>
+        </is>
+      </c>
+      <c r="AN4" s="5" t="inlineStr">
+        <is>
+          <t>Dados do Fornecedor</t>
+        </is>
+      </c>
+      <c r="AO4" s="5" t="inlineStr">
+        <is>
+          <t>Qualidade dos dados</t>
+        </is>
+      </c>
+      <c r="AP4" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ4" s="5" t="inlineStr">
+        <is>
+          <t>Operações - ZUPPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>22256752</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>23122714</v>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>ACC01</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>45804.43902777778</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>45804.44037037037</v>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>LQILSR</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Nadja Cruz</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="L5" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>45804.43819444445</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>6718978</v>
+      </c>
+      <c r="O5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P5" s="5" t="inlineStr">
+        <is>
           <t>OFF LINE</t>
         </is>
       </c>
-      <c r="Q4" s="5" t="inlineStr">
+      <c r="Q5" s="5" t="inlineStr">
         <is>
           <t>Invoice</t>
         </is>
       </c>
-      <c r="R4" s="5" t="inlineStr">
+      <c r="R5" s="5" t="inlineStr">
         <is>
           <t>Cartão convênio</t>
         </is>
       </c>
-      <c r="S4" s="5" t="inlineStr">
+      <c r="S5" s="5" t="inlineStr">
         <is>
           <t>Aéreo</t>
         </is>
       </c>
-      <c r="T4" s="5" t="inlineStr">
+      <c r="T5" s="5" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="U4" s="5" t="inlineStr">
+      <c r="U5" s="5" t="inlineStr">
         <is>
           <t>Grupo Zupper</t>
         </is>
       </c>
-      <c r="V4" s="5" t="inlineStr">
-        <is>
-          <t>Zupper Cartao</t>
-        </is>
-      </c>
-      <c r="W4" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X4" s="5" t="inlineStr">
+      <c r="V5" s="5" t="inlineStr">
+        <is>
+          <t>Naldton Meneses Lima</t>
+        </is>
+      </c>
+      <c r="W5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X5" s="5" t="inlineStr">
         <is>
           <t>Latam Airlines Brasil</t>
         </is>
       </c>
-      <c r="Y4" s="5" t="n">
-        <v>2227218979</v>
-      </c>
-      <c r="Z4" s="5" t="inlineStr">
+      <c r="Y5" s="5" t="n">
+        <v>2234117801</v>
+      </c>
+      <c r="Z5" s="5" t="inlineStr">
         <is>
           <t>ZUPPER</t>
         </is>
       </c>
-      <c r="AA4" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB4" s="5" t="n">
-        <v>1444.64</v>
-      </c>
-      <c r="AC4" s="5" t="n">
-        <v>90.33</v>
-      </c>
-      <c r="AD4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AJ4" s="5" t="inlineStr">
+      <c r="AA5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB5" s="5" t="n">
+        <v>461.6</v>
+      </c>
+      <c r="AC5" s="5" t="n">
+        <v>51.92</v>
+      </c>
+      <c r="AD5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="5" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="AI5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ5" s="5" t="inlineStr">
         <is>
           <t>36Faltou informar rateio de centro de custo/projeto abaixo da accounting</t>
         </is>
       </c>
-      <c r="AK4" s="5" t="inlineStr">
+      <c r="AK5" s="5" t="inlineStr">
         <is>
           <t>ZUPPER</t>
         </is>
       </c>
-      <c r="AL4" s="5" t="inlineStr">
+      <c r="AL5" s="5" t="inlineStr">
         <is>
           <t>Falta de informação Gerencial</t>
         </is>
       </c>
-      <c r="AM4" s="5" t="inlineStr">
+      <c r="AM5" s="5" t="inlineStr">
         <is>
           <t>Campo centro de custo</t>
         </is>
       </c>
-      <c r="AN4" s="5" t="inlineStr">
+      <c r="AN5" s="5" t="inlineStr">
         <is>
           <t>Dados Gerenciais</t>
         </is>
       </c>
-      <c r="AO4" s="5" t="inlineStr">
+      <c r="AO5" s="5" t="inlineStr">
         <is>
           <t>Qualidade dos dados</t>
         </is>
       </c>
-      <c r="AP4" s="5" t="inlineStr">
+      <c r="AP5" s="5" t="inlineStr">
         <is>
           <t>ZUPPER VIAGENS</t>
         </is>
       </c>
-      <c r="AQ4" s="5" t="inlineStr">
+      <c r="AQ5" s="5" t="inlineStr">
+        <is>
+          <t>Operações - ZUPPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>22256741</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>23122704</v>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>ACC01</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>45804.43840277778</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>45804.44003472223</v>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>JP4TMK</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Nadja Cruz</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>45804.4375</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>6718977</v>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Cartão convênio</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Zupper</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Naldton Meneses Lima</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Azul Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="n">
+        <v>4351955922</v>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="n">
+        <v>438.32</v>
+      </c>
+      <c r="AC6" s="5" t="n">
+        <v>44.27</v>
+      </c>
+      <c r="AD6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="5" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="AI6" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ6" s="5" t="inlineStr">
+        <is>
+          <t>36Faltou informar rateio de centro de custo/projeto abaixo da accounting</t>
+        </is>
+      </c>
+      <c r="AK6" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AL6" s="5" t="inlineStr">
+        <is>
+          <t>Falta de informação Gerencial</t>
+        </is>
+      </c>
+      <c r="AM6" s="5" t="inlineStr">
+        <is>
+          <t>Campo centro de custo</t>
+        </is>
+      </c>
+      <c r="AN6" s="5" t="inlineStr">
+        <is>
+          <t>Dados Gerenciais</t>
+        </is>
+      </c>
+      <c r="AO6" s="5" t="inlineStr">
+        <is>
+          <t>Qualidade dos dados</t>
+        </is>
+      </c>
+      <c r="AP6" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ6" s="5" t="inlineStr">
         <is>
           <t>Operações - ZUPPER</t>
         </is>

--- a/PROCESSADO ERRO/EMPRESAS/Relatorio - ZUPPER VIAGENS.xlsx
+++ b/PROCESSADO ERRO/EMPRESAS/Relatorio - ZUPPER VIAGENS.xlsx
@@ -479,7 +479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AQ10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -706,10 +706,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
-        <v>22119509</v>
+        <v>22148756</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>23001637</v>
+        <v>23028343</v>
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
@@ -717,24 +717,24 @@
         </is>
       </c>
       <c r="D2" s="6" t="n">
-        <v>45779.71881944445</v>
+        <v>45785.0125</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>45786.43270833333</v>
-      </c>
-      <c r="F2" s="7" t="inlineStr">
-        <is>
-          <t>16 a 23 dias</t>
-        </is>
-      </c>
-      <c r="G2" s="7" t="inlineStr">
-        <is>
-          <t>16 a 23 dias</t>
+        <v>45813.66875</v>
+      </c>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>24 a 31 dias</t>
         </is>
       </c>
       <c r="H2" s="5" t="inlineStr">
         <is>
-          <t>LGNXQM</t>
+          <t>EDOUCF</t>
         </is>
       </c>
       <c r="I2" s="5" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="J2" s="5" t="inlineStr">
         <is>
-          <t>DIOGO OLIVEIRA</t>
+          <t>Jhonatan Carlos Cardosos</t>
         </is>
       </c>
       <c r="K2" s="5" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="M2" s="6" t="n">
-        <v>45779.71805555555</v>
+        <v>45785.01180555556</v>
       </c>
       <c r="N2" s="5" t="n">
-        <v>6690977</v>
+        <v>6698561</v>
       </c>
       <c r="O2" s="5" t="inlineStr">
         <is>
@@ -775,12 +775,12 @@
       </c>
       <c r="Q2" s="5" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="R2" s="5" t="inlineStr">
         <is>
-          <t>Cartão convênio</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="S2" s="5" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="V2" s="5" t="inlineStr">
         <is>
-          <t>Helena Bacelar</t>
+          <t>Caroline de Castilho Soares</t>
         </is>
       </c>
       <c r="W2" s="5" t="inlineStr">
@@ -810,11 +810,11 @@
       </c>
       <c r="X2" s="5" t="inlineStr">
         <is>
-          <t>Latam Airlines Brasil</t>
+          <t>Gol Linhas Aereas</t>
         </is>
       </c>
       <c r="Y2" s="5" t="n">
-        <v>2230548609</v>
+        <v>2137366345</v>
       </c>
       <c r="Z2" s="5" t="inlineStr">
         <is>
@@ -827,16 +827,16 @@
         </is>
       </c>
       <c r="AB2" s="5" t="n">
-        <v>338.96</v>
+        <v>639.7</v>
       </c>
       <c r="AC2" s="5" t="n">
-        <v>90.98999999999999</v>
+        <v>32.1</v>
       </c>
       <c r="AD2" s="5" t="n">
         <v>0</v>
       </c>
       <c r="AE2" s="5" t="n">
-        <v>0</v>
+        <v>63.97</v>
       </c>
       <c r="AF2" s="5" t="n">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="AH2" s="5" t="n">
-        <v>313.59</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="5" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
       </c>
       <c r="AJ2" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Erro excluindo PNR: Não é possivel excluir a accounting de código: 24432964. A mesma está ligada a conciliação de cartão "REDE ANTECIPAÇÃO </t>
+          <t>Não foi possível definir o Local de destino!</t>
         </is>
       </c>
       <c r="AK2" s="5" t="inlineStr">
@@ -864,22 +864,22 @@
       </c>
       <c r="AL2" s="5" t="inlineStr">
         <is>
-          <t>Conciliação de Cartão</t>
+          <t>Cadastro enviado errado no Benner</t>
         </is>
       </c>
       <c r="AM2" s="5" t="inlineStr">
         <is>
-          <t>Financeiro Conciliado</t>
+          <t>Cadastro incompleto</t>
         </is>
       </c>
       <c r="AN2" s="5" t="inlineStr">
         <is>
-          <t>Edição não Permitida</t>
+          <t>Sistema</t>
         </is>
       </c>
       <c r="AO2" s="5" t="inlineStr">
         <is>
-          <t>Qualidade dos dados</t>
+          <t>Sistêmico</t>
         </is>
       </c>
       <c r="AP2" s="5" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="AQ2" s="5" t="inlineStr">
         <is>
-          <t>Operações - ZUPPER</t>
+          <t>Suporte Benner</t>
         </is>
       </c>
     </row>
@@ -898,27 +898,27 @@
         <v>22119509</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>23001638</v>
+        <v>23001637</v>
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>ACC02</t>
+          <t>ACC01</t>
         </is>
       </c>
       <c r="D3" s="6" t="n">
-        <v>45779.71881944445</v>
+        <v>45779.71875</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>45786.43270833333</v>
+        <v>45786.43263888889</v>
       </c>
       <c r="F3" s="7" t="inlineStr">
         <is>
-          <t>16 a 23 dias</t>
+          <t>24 a 31 dias</t>
         </is>
       </c>
       <c r="G3" s="7" t="inlineStr">
         <is>
-          <t>16 a 23 dias</t>
+          <t>31 dias ou +</t>
         </is>
       </c>
       <c r="H3" s="5" t="inlineStr">
@@ -933,7 +933,7 @@
       </c>
       <c r="J3" s="5" t="inlineStr">
         <is>
-          <t>ALANDA DANTAS</t>
+          <t>DIOGO OLIVEIRA</t>
         </is>
       </c>
       <c r="K3" s="5" t="inlineStr">
@@ -1003,7 +1003,7 @@
         </is>
       </c>
       <c r="Y3" s="5" t="n">
-        <v>2230548610</v>
+        <v>2230548609</v>
       </c>
       <c r="Z3" s="5" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="AH3" s="5" t="n">
-        <v>0</v>
+        <v>313.59</v>
       </c>
       <c r="AI3" s="5" t="inlineStr">
         <is>
@@ -1053,17 +1053,17 @@
       </c>
       <c r="AL3" s="5" t="inlineStr">
         <is>
-          <t>Conciliação de Cartão</t>
+          <t>Não identificado</t>
         </is>
       </c>
       <c r="AM3" s="5" t="inlineStr">
         <is>
-          <t>Financeiro Conciliado</t>
+          <t>Análise Benner</t>
         </is>
       </c>
       <c r="AN3" s="5" t="inlineStr">
         <is>
-          <t>Edição não Permitida</t>
+          <t>Sistema</t>
         </is>
       </c>
       <c r="AO3" s="5" t="inlineStr">
@@ -1084,71 +1084,71 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
-        <v>22262503</v>
+        <v>22119509</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>23127888</v>
+        <v>23001638</v>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>ACC01</t>
+          <t>ACC02</t>
         </is>
       </c>
       <c r="D4" s="6" t="n">
-        <v>45805.22170138889</v>
+        <v>45779.71875</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>45805.2250462963</v>
-      </c>
-      <c r="F4" s="5" t="inlineStr">
-        <is>
-          <t>0 a 02 dias</t>
-        </is>
-      </c>
-      <c r="G4" s="5" t="inlineStr">
-        <is>
-          <t>0 a 02 dias</t>
+        <v>45786.43263888889</v>
+      </c>
+      <c r="F4" s="7" t="inlineStr">
+        <is>
+          <t>24 a 31 dias</t>
+        </is>
+      </c>
+      <c r="G4" s="7" t="inlineStr">
+        <is>
+          <t>31 dias ou +</t>
         </is>
       </c>
       <c r="H4" s="5" t="inlineStr">
         <is>
-          <t>57ZZ8K</t>
+          <t>LGNXQM</t>
         </is>
       </c>
       <c r="I4" s="5" t="inlineStr">
         <is>
-          <t>TMS</t>
+          <t>EBOOKING</t>
         </is>
       </c>
       <c r="J4" s="5" t="inlineStr">
         <is>
-          <t>CARLOS OLIVEIRA</t>
+          <t>ALANDA DANTAS</t>
         </is>
       </c>
       <c r="K4" s="5" t="inlineStr">
         <is>
-          <t>Tms</t>
+          <t>Zupper</t>
         </is>
       </c>
       <c r="L4" s="5" t="inlineStr">
         <is>
-          <t>Tms</t>
+          <t>Zupper</t>
         </is>
       </c>
       <c r="M4" s="6" t="n">
-        <v>45805.18125</v>
+        <v>45779.71805555555</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>332</v>
+        <v>6690977</v>
       </c>
       <c r="O4" s="5" t="inlineStr">
         <is>
-          <t>Taubate / QHP</t>
+          <t>-</t>
         </is>
       </c>
       <c r="P4" s="5" t="inlineStr">
         <is>
-          <t>ON LINE</t>
+          <t>OFF LINE</t>
         </is>
       </c>
       <c r="Q4" s="5" t="inlineStr">
@@ -1158,12 +1158,12 @@
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>Faturado</t>
+          <t>Cartão convênio</t>
         </is>
       </c>
       <c r="S4" s="5" t="inlineStr">
         <is>
-          <t>Carro</t>
+          <t>Aéreo</t>
         </is>
       </c>
       <c r="T4" s="5" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="V4" s="5" t="inlineStr">
         <is>
-          <t>Zupper Viagens Internas</t>
+          <t>Helena Bacelar</t>
         </is>
       </c>
       <c r="W4" s="5" t="inlineStr">
@@ -1188,17 +1188,15 @@
       </c>
       <c r="X4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y4" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Latam Airlines Brasil</t>
+        </is>
+      </c>
+      <c r="Y4" s="5" t="n">
+        <v>2230548610</v>
       </c>
       <c r="Z4" s="5" t="inlineStr">
         <is>
-          <t>KON-OPE-SAO-SUP-KONTIK DESPESAS</t>
+          <t>ZUPPER</t>
         </is>
       </c>
       <c r="AA4" s="5" t="inlineStr">
@@ -1207,10 +1205,10 @@
         </is>
       </c>
       <c r="AB4" s="5" t="n">
-        <v>502.05</v>
+        <v>338.96</v>
       </c>
       <c r="AC4" s="5" t="n">
-        <v>0</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="AD4" s="5" t="n">
         <v>0</v>
@@ -1229,12 +1227,12 @@
       </c>
       <c r="AI4" s="5" t="inlineStr">
         <is>
-          <t>Reserva importada do Sistema TMS. OS: 332</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AJ4" s="5" t="inlineStr">
         <is>
-          <t>Fornecedor não preenchido! (ACC01)</t>
+          <t xml:space="preserve">Erro excluindo PNR: Não é possivel excluir a accounting de código: 24432964. A mesma está ligada a conciliação de cartão "REDE ANTECIPAÇÃO </t>
         </is>
       </c>
       <c r="AK4" s="5" t="inlineStr">
@@ -1244,17 +1242,17 @@
       </c>
       <c r="AL4" s="5" t="inlineStr">
         <is>
-          <t>Falta de Fornecedor</t>
+          <t>Não identificado</t>
         </is>
       </c>
       <c r="AM4" s="5" t="inlineStr">
         <is>
-          <t>Campo Fornecedor</t>
+          <t>Análise Benner</t>
         </is>
       </c>
       <c r="AN4" s="5" t="inlineStr">
         <is>
-          <t>Dados do Fornecedor</t>
+          <t>Sistema</t>
         </is>
       </c>
       <c r="AO4" s="5" t="inlineStr">
@@ -1275,10 +1273,10 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
-        <v>22256752</v>
+        <v>22282070</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>23122714</v>
+        <v>23145045</v>
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
@@ -1286,10 +1284,10 @@
         </is>
       </c>
       <c r="D5" s="6" t="n">
-        <v>45804.43902777778</v>
+        <v>45808.39444444444</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>45804.44037037037</v>
+        <v>45813.66875</v>
       </c>
       <c r="F5" s="5" t="inlineStr">
         <is>
@@ -1298,12 +1296,12 @@
       </c>
       <c r="G5" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="H5" s="5" t="inlineStr">
         <is>
-          <t>LQILSR</t>
+          <t>FQBTFX</t>
         </is>
       </c>
       <c r="I5" s="5" t="inlineStr">
@@ -1313,7 +1311,7 @@
       </c>
       <c r="J5" s="5" t="inlineStr">
         <is>
-          <t>Nadja Cruz</t>
+          <t>CECILIA ALMEIDA</t>
         </is>
       </c>
       <c r="K5" s="5" t="inlineStr">
@@ -1327,10 +1325,10 @@
         </is>
       </c>
       <c r="M5" s="6" t="n">
-        <v>45804.43819444445</v>
+        <v>45808.39375</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>6718978</v>
+        <v>6723327</v>
       </c>
       <c r="O5" s="5" t="inlineStr">
         <is>
@@ -1344,12 +1342,12 @@
       </c>
       <c r="Q5" s="5" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="R5" s="5" t="inlineStr">
         <is>
-          <t>Cartão convênio</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="S5" s="5" t="inlineStr">
@@ -1369,7 +1367,7 @@
       </c>
       <c r="V5" s="5" t="inlineStr">
         <is>
-          <t>Naldton Meneses Lima</t>
+          <t>Benedito Almeida S</t>
         </is>
       </c>
       <c r="W5" s="5" t="inlineStr">
@@ -1379,11 +1377,11 @@
       </c>
       <c r="X5" s="5" t="inlineStr">
         <is>
-          <t>Latam Airlines Brasil</t>
+          <t>Gol Linhas Aereas</t>
         </is>
       </c>
       <c r="Y5" s="5" t="n">
-        <v>2234117801</v>
+        <v>2138782711</v>
       </c>
       <c r="Z5" s="5" t="inlineStr">
         <is>
@@ -1396,16 +1394,16 @@
         </is>
       </c>
       <c r="AB5" s="5" t="n">
-        <v>461.6</v>
+        <v>444.14</v>
       </c>
       <c r="AC5" s="5" t="n">
-        <v>51.92</v>
+        <v>60.62</v>
       </c>
       <c r="AD5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="AE5" s="5" t="n">
-        <v>0</v>
+        <v>44.41</v>
       </c>
       <c r="AF5" s="5" t="n">
         <v>0</v>
@@ -1414,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="AH5" s="5" t="n">
-        <v>23.08</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="5" t="inlineStr">
         <is>
@@ -1423,7 +1421,7 @@
       </c>
       <c r="AJ5" s="5" t="inlineStr">
         <is>
-          <t>36Faltou informar rateio de centro de custo/projeto abaixo da accounting</t>
+          <t>Não foi possível definir o Local de destino!</t>
         </is>
       </c>
       <c r="AK5" s="5" t="inlineStr">
@@ -1433,22 +1431,22 @@
       </c>
       <c r="AL5" s="5" t="inlineStr">
         <is>
-          <t>Falta de informação Gerencial</t>
+          <t>Cadastro enviado errado no Benner</t>
         </is>
       </c>
       <c r="AM5" s="5" t="inlineStr">
         <is>
-          <t>Campo centro de custo</t>
+          <t>Cadastro incompleto</t>
         </is>
       </c>
       <c r="AN5" s="5" t="inlineStr">
         <is>
-          <t>Dados Gerenciais</t>
+          <t>Sistema</t>
         </is>
       </c>
       <c r="AO5" s="5" t="inlineStr">
         <is>
-          <t>Qualidade dos dados</t>
+          <t>Sistêmico</t>
         </is>
       </c>
       <c r="AP5" s="5" t="inlineStr">
@@ -1458,16 +1456,16 @@
       </c>
       <c r="AQ5" s="5" t="inlineStr">
         <is>
-          <t>Operações - ZUPPER</t>
+          <t>Suporte Benner</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
-        <v>22256741</v>
+        <v>22248119</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>23122704</v>
+        <v>23115510</v>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
@@ -1475,10 +1473,10 @@
         </is>
       </c>
       <c r="D6" s="6" t="n">
-        <v>45804.43840277778</v>
+        <v>45802.90972222222</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>45804.44003472223</v>
+        <v>45813.67152777778</v>
       </c>
       <c r="F6" s="5" t="inlineStr">
         <is>
@@ -1487,167 +1485,923 @@
       </c>
       <c r="G6" s="5" t="inlineStr">
         <is>
+          <t>09 a 15 dias</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>OYQVTY</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Dario Cavalcante</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>45802.90902777778</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>6717659</v>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Zupper</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Da©bora C C Amaral</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Gol Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="n">
+        <v>2138471636</v>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="n">
+        <v>876.28</v>
+      </c>
+      <c r="AC6" s="5" t="n">
+        <v>90.33</v>
+      </c>
+      <c r="AD6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="5" t="n">
+        <v>87.62</v>
+      </c>
+      <c r="AF6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ6" s="5" t="inlineStr">
+        <is>
+          <t>Não foi possível definir o Local de destino!</t>
+        </is>
+      </c>
+      <c r="AK6" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AL6" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro enviado errado no Benner</t>
+        </is>
+      </c>
+      <c r="AM6" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro incompleto</t>
+        </is>
+      </c>
+      <c r="AN6" s="5" t="inlineStr">
+        <is>
+          <t>Sistema</t>
+        </is>
+      </c>
+      <c r="AO6" s="5" t="inlineStr">
+        <is>
+          <t>Sistêmico</t>
+        </is>
+      </c>
+      <c r="AP6" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ6" s="5" t="inlineStr">
+        <is>
+          <t>Suporte Benner</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>22307208</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>23165300</v>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>ACC01</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>45812.92777777778</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>45813.66944444444</v>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
           <t>0 a 02 dias</t>
         </is>
       </c>
-      <c r="H6" s="5" t="inlineStr">
-        <is>
-          <t>JP4TMK</t>
-        </is>
-      </c>
-      <c r="I6" s="5" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>HOLFQW</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
         <is>
           <t>EBOOKING</t>
         </is>
       </c>
-      <c r="J6" s="5" t="inlineStr">
-        <is>
-          <t>Nadja Cruz</t>
-        </is>
-      </c>
-      <c r="K6" s="5" t="inlineStr">
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>Cintia Silva</t>
+        </is>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
         <is>
           <t>Zupper</t>
         </is>
       </c>
-      <c r="L6" s="5" t="inlineStr">
+      <c r="L7" s="5" t="inlineStr">
         <is>
           <t>Zupper</t>
         </is>
       </c>
-      <c r="M6" s="6" t="n">
-        <v>45804.4375</v>
-      </c>
-      <c r="N6" s="5" t="n">
-        <v>6718977</v>
-      </c>
-      <c r="O6" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P6" s="5" t="inlineStr">
+      <c r="M7" s="6" t="n">
+        <v>45812.92708333334</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>6728064</v>
+      </c>
+      <c r="O7" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P7" s="5" t="inlineStr">
         <is>
           <t>OFF LINE</t>
         </is>
       </c>
-      <c r="Q6" s="5" t="inlineStr">
+      <c r="Q7" s="5" t="inlineStr">
         <is>
           <t>Invoice</t>
         </is>
       </c>
-      <c r="R6" s="5" t="inlineStr">
+      <c r="R7" s="5" t="inlineStr">
         <is>
           <t>Cartão convênio</t>
         </is>
       </c>
-      <c r="S6" s="5" t="inlineStr">
+      <c r="S7" s="5" t="inlineStr">
         <is>
           <t>Aéreo</t>
         </is>
       </c>
-      <c r="T6" s="5" t="inlineStr">
+      <c r="T7" s="5" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="U6" s="5" t="inlineStr">
+      <c r="U7" s="5" t="inlineStr">
         <is>
           <t>Grupo Zupper</t>
         </is>
       </c>
-      <c r="V6" s="5" t="inlineStr">
-        <is>
-          <t>Naldton Meneses Lima</t>
-        </is>
-      </c>
-      <c r="W6" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X6" s="5" t="inlineStr">
-        <is>
-          <t>Azul Linhas Aereas</t>
-        </is>
-      </c>
-      <c r="Y6" s="5" t="n">
-        <v>4351955922</v>
-      </c>
-      <c r="Z6" s="5" t="inlineStr">
+      <c r="V7" s="5" t="inlineStr">
+        <is>
+          <t>Claudio Melo Silva</t>
+        </is>
+      </c>
+      <c r="W7" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X7" s="5" t="inlineStr">
+        <is>
+          <t>Gol Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y7" s="5" t="n">
+        <v>2139059710</v>
+      </c>
+      <c r="Z7" s="5" t="inlineStr">
         <is>
           <t>ZUPPER</t>
         </is>
       </c>
-      <c r="AA6" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB6" s="5" t="n">
-        <v>438.32</v>
-      </c>
-      <c r="AC6" s="5" t="n">
-        <v>44.27</v>
-      </c>
-      <c r="AD6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="5" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="AI6" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AJ6" s="5" t="inlineStr">
-        <is>
-          <t>36Faltou informar rateio de centro de custo/projeto abaixo da accounting</t>
-        </is>
-      </c>
-      <c r="AK6" s="5" t="inlineStr">
+      <c r="AA7" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB7" s="5" t="n">
+        <v>616.14</v>
+      </c>
+      <c r="AC7" s="5" t="n">
+        <v>49.71</v>
+      </c>
+      <c r="AD7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="5" t="n">
+        <v>61.61</v>
+      </c>
+      <c r="AF7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ7" s="5" t="inlineStr">
+        <is>
+          <t>Não foi possível definir o Local de destino!</t>
+        </is>
+      </c>
+      <c r="AK7" s="5" t="inlineStr">
         <is>
           <t>ZUPPER</t>
         </is>
       </c>
-      <c r="AL6" s="5" t="inlineStr">
-        <is>
-          <t>Falta de informação Gerencial</t>
-        </is>
-      </c>
-      <c r="AM6" s="5" t="inlineStr">
-        <is>
-          <t>Campo centro de custo</t>
-        </is>
-      </c>
-      <c r="AN6" s="5" t="inlineStr">
-        <is>
-          <t>Dados Gerenciais</t>
-        </is>
-      </c>
-      <c r="AO6" s="5" t="inlineStr">
-        <is>
-          <t>Qualidade dos dados</t>
-        </is>
-      </c>
-      <c r="AP6" s="5" t="inlineStr">
+      <c r="AL7" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro enviado errado no Benner</t>
+        </is>
+      </c>
+      <c r="AM7" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro incompleto</t>
+        </is>
+      </c>
+      <c r="AN7" s="5" t="inlineStr">
+        <is>
+          <t>Sistema</t>
+        </is>
+      </c>
+      <c r="AO7" s="5" t="inlineStr">
+        <is>
+          <t>Sistêmico</t>
+        </is>
+      </c>
+      <c r="AP7" s="5" t="inlineStr">
         <is>
           <t>ZUPPER VIAGENS</t>
         </is>
       </c>
-      <c r="AQ6" s="5" t="inlineStr">
-        <is>
-          <t>Operações - ZUPPER</t>
+      <c r="AQ7" s="5" t="inlineStr">
+        <is>
+          <t>Suporte Benner</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>22307203</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>23165292</v>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>ACC01</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>45812.92708333334</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>45813.67152777778</v>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>KXAFEP</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J8" s="5" t="inlineStr">
+        <is>
+          <t>Cintia Silva</t>
+        </is>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>45812.92638888889</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>6728063</v>
+      </c>
+      <c r="O8" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P8" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q8" s="5" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="R8" s="5" t="inlineStr">
+        <is>
+          <t>Cartão convênio</t>
+        </is>
+      </c>
+      <c r="S8" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T8" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U8" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Zupper</t>
+        </is>
+      </c>
+      <c r="V8" s="5" t="inlineStr">
+        <is>
+          <t>Claudio Melo Silva</t>
+        </is>
+      </c>
+      <c r="W8" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X8" s="5" t="inlineStr">
+        <is>
+          <t>Latam Airlines Brasil</t>
+        </is>
+      </c>
+      <c r="Y8" s="5" t="n">
+        <v>2235679832</v>
+      </c>
+      <c r="Z8" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AA8" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB8" s="5" t="n">
+        <v>698.99</v>
+      </c>
+      <c r="AC8" s="5" t="n">
+        <v>31.44</v>
+      </c>
+      <c r="AD8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="5" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="AI8" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ8" s="5" t="inlineStr">
+        <is>
+          <t>Não foi possível definir o Local de destino!</t>
+        </is>
+      </c>
+      <c r="AK8" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AL8" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro enviado errado no Benner</t>
+        </is>
+      </c>
+      <c r="AM8" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro incompleto</t>
+        </is>
+      </c>
+      <c r="AN8" s="5" t="inlineStr">
+        <is>
+          <t>Sistema</t>
+        </is>
+      </c>
+      <c r="AO8" s="5" t="inlineStr">
+        <is>
+          <t>Sistêmico</t>
+        </is>
+      </c>
+      <c r="AP8" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ8" s="5" t="inlineStr">
+        <is>
+          <t>Suporte Benner</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n">
+        <v>22307099</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>23165213</v>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>ACC01</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>45812.90763888889</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>45813.67152777778</v>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>HQBDAJ</t>
+        </is>
+      </c>
+      <c r="I9" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J9" s="5" t="inlineStr">
+        <is>
+          <t>DERICA CRISTINA SANTOS SANTOS</t>
+        </is>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="L9" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>45812.90694444445</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>6727995</v>
+      </c>
+      <c r="O9" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P9" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q9" s="5" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="R9" s="5" t="inlineStr">
+        <is>
+          <t>Cartão convênio</t>
+        </is>
+      </c>
+      <c r="S9" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T9" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U9" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Zupper</t>
+        </is>
+      </c>
+      <c r="V9" s="5" t="inlineStr">
+        <is>
+          <t>Derica Cristina Santos dos Santos</t>
+        </is>
+      </c>
+      <c r="W9" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X9" s="5" t="inlineStr">
+        <is>
+          <t>Latam Airlines Brasil</t>
+        </is>
+      </c>
+      <c r="Y9" s="5" t="n">
+        <v>2235673032</v>
+      </c>
+      <c r="Z9" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AA9" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB9" s="5" t="n">
+        <v>687.92</v>
+      </c>
+      <c r="AC9" s="5" t="n">
+        <v>51.92</v>
+      </c>
+      <c r="AD9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="5" t="n">
+        <v>125.43</v>
+      </c>
+      <c r="AI9" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ9" s="5" t="inlineStr">
+        <is>
+          <t>Não foi possível definir o Local de destino!</t>
+        </is>
+      </c>
+      <c r="AK9" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AL9" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro enviado errado no Benner</t>
+        </is>
+      </c>
+      <c r="AM9" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro incompleto</t>
+        </is>
+      </c>
+      <c r="AN9" s="5" t="inlineStr">
+        <is>
+          <t>Sistema</t>
+        </is>
+      </c>
+      <c r="AO9" s="5" t="inlineStr">
+        <is>
+          <t>Sistêmico</t>
+        </is>
+      </c>
+      <c r="AP9" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ9" s="5" t="inlineStr">
+        <is>
+          <t>Suporte Benner</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="n">
+        <v>22307128</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>23165232</v>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>ACC01</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>45812.91319444445</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>45813.66875</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G10" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>JBDUXK</t>
+        </is>
+      </c>
+      <c r="I10" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J10" s="5" t="inlineStr">
+        <is>
+          <t>ANA CRISTINA SANTOS SANTOS</t>
+        </is>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="L10" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>45812.9125</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>6728008</v>
+      </c>
+      <c r="O10" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P10" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q10" s="5" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="R10" s="5" t="inlineStr">
+        <is>
+          <t>Cartão convênio</t>
+        </is>
+      </c>
+      <c r="S10" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T10" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U10" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Zupper</t>
+        </is>
+      </c>
+      <c r="V10" s="5" t="inlineStr">
+        <is>
+          <t>Elso Santos dos Santos</t>
+        </is>
+      </c>
+      <c r="W10" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X10" s="5" t="inlineStr">
+        <is>
+          <t>Latam Airlines Brasil</t>
+        </is>
+      </c>
+      <c r="Y10" s="5" t="n">
+        <v>2235674297</v>
+      </c>
+      <c r="Z10" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AA10" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB10" s="5" t="n">
+        <v>687.92</v>
+      </c>
+      <c r="AC10" s="5" t="n">
+        <v>51.92</v>
+      </c>
+      <c r="AD10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="5" t="n">
+        <v>125.43</v>
+      </c>
+      <c r="AI10" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ10" s="5" t="inlineStr">
+        <is>
+          <t>Não foi possível definir o Local de destino!</t>
+        </is>
+      </c>
+      <c r="AK10" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AL10" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro enviado errado no Benner</t>
+        </is>
+      </c>
+      <c r="AM10" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro incompleto</t>
+        </is>
+      </c>
+      <c r="AN10" s="5" t="inlineStr">
+        <is>
+          <t>Sistema</t>
+        </is>
+      </c>
+      <c r="AO10" s="5" t="inlineStr">
+        <is>
+          <t>Sistêmico</t>
+        </is>
+      </c>
+      <c r="AP10" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ10" s="5" t="inlineStr">
+        <is>
+          <t>Suporte Benner</t>
         </is>
       </c>
     </row>

--- a/PROCESSADO ERRO/EMPRESAS/Relatorio - ZUPPER VIAGENS.xlsx
+++ b/PROCESSADO ERRO/EMPRESAS/Relatorio - ZUPPER VIAGENS.xlsx
@@ -18,7 +18,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -41,9 +41,6 @@
     <font>
       <b val="1"/>
       <color rgb="00591F6A"/>
-    </font>
-    <font>
-      <color rgb="00FF0000"/>
     </font>
   </fonts>
   <fills count="4">
@@ -93,7 +90,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -109,9 +106,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -479,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -706,10 +700,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
-        <v>22119509</v>
+        <v>22282070</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>23001637</v>
+        <v>23145045</v>
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
@@ -717,24 +711,24 @@
         </is>
       </c>
       <c r="D2" s="6" t="n">
-        <v>45779.71881944445</v>
+        <v>45808.39444444444</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>45786.43270833333</v>
-      </c>
-      <c r="F2" s="7" t="inlineStr">
-        <is>
-          <t>24 a 31 dias</t>
-        </is>
-      </c>
-      <c r="G2" s="7" t="inlineStr">
-        <is>
-          <t>31 dias ou +</t>
+        <v>45821.46041666667</v>
+      </c>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>09 a 15 dias</t>
         </is>
       </c>
       <c r="H2" s="5" t="inlineStr">
         <is>
-          <t>LGNXQM</t>
+          <t>FQBTFX</t>
         </is>
       </c>
       <c r="I2" s="5" t="inlineStr">
@@ -744,7 +738,7 @@
       </c>
       <c r="J2" s="5" t="inlineStr">
         <is>
-          <t>DIOGO OLIVEIRA</t>
+          <t>CECILIA ALMEIDA</t>
         </is>
       </c>
       <c r="K2" s="5" t="inlineStr">
@@ -758,10 +752,10 @@
         </is>
       </c>
       <c r="M2" s="6" t="n">
-        <v>45779.71805555555</v>
+        <v>45808.39375</v>
       </c>
       <c r="N2" s="5" t="n">
-        <v>6690977</v>
+        <v>6723327</v>
       </c>
       <c r="O2" s="5" t="inlineStr">
         <is>
@@ -775,12 +769,12 @@
       </c>
       <c r="Q2" s="5" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="R2" s="5" t="inlineStr">
         <is>
-          <t>Cartão convênio</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="S2" s="5" t="inlineStr">
@@ -800,7 +794,7 @@
       </c>
       <c r="V2" s="5" t="inlineStr">
         <is>
-          <t>Helena Bacelar</t>
+          <t>Benedito Almeida S</t>
         </is>
       </c>
       <c r="W2" s="5" t="inlineStr">
@@ -810,11 +804,11 @@
       </c>
       <c r="X2" s="5" t="inlineStr">
         <is>
-          <t>Latam Airlines Brasil</t>
+          <t>Gol Linhas Aereas</t>
         </is>
       </c>
       <c r="Y2" s="5" t="n">
-        <v>2230548609</v>
+        <v>2138782711</v>
       </c>
       <c r="Z2" s="5" t="inlineStr">
         <is>
@@ -827,16 +821,16 @@
         </is>
       </c>
       <c r="AB2" s="5" t="n">
-        <v>338.96</v>
+        <v>444.14</v>
       </c>
       <c r="AC2" s="5" t="n">
-        <v>90.98999999999999</v>
+        <v>60.62</v>
       </c>
       <c r="AD2" s="5" t="n">
         <v>0</v>
       </c>
       <c r="AE2" s="5" t="n">
-        <v>0</v>
+        <v>44.41</v>
       </c>
       <c r="AF2" s="5" t="n">
         <v>0</v>
@@ -845,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="AH2" s="5" t="n">
-        <v>313.59</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="5" t="inlineStr">
         <is>
@@ -854,7 +848,7 @@
       </c>
       <c r="AJ2" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Erro excluindo PNR: Não é possivel excluir a accounting de código: 24432964. A mesma está ligada a conciliação de cartão "REDE ANTECIPAÇÃO </t>
+          <t>Não foi possível definir o Local de destino!</t>
         </is>
       </c>
       <c r="AK2" s="5" t="inlineStr">
@@ -864,17 +858,17 @@
       </c>
       <c r="AL2" s="5" t="inlineStr">
         <is>
-          <t>Conciliação de Cartão</t>
+          <t>Cadastro enviado errado no Benner</t>
         </is>
       </c>
       <c r="AM2" s="5" t="inlineStr">
         <is>
-          <t>Financeiro Conciliado</t>
+          <t>Cadastro incompleto</t>
         </is>
       </c>
       <c r="AN2" s="5" t="inlineStr">
         <is>
-          <t>Edição não Permitida</t>
+          <t>Sistema</t>
         </is>
       </c>
       <c r="AO2" s="5" t="inlineStr">
@@ -889,194 +883,2273 @@
       </c>
       <c r="AQ2" s="5" t="inlineStr">
         <is>
-          <t>Operações - ZUPPER</t>
+          <t>Suporte Benner</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
-        <v>22119509</v>
+        <v>22248119</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>23001638</v>
+        <v>23115510</v>
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
+          <t>ACC01</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>45802.90972222222</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>45821.46111111111</v>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
+        <is>
+          <t>16 a 23 dias</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>OYQVTY</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J3" s="5" t="inlineStr">
+        <is>
+          <t>Dario Cavalcante</t>
+        </is>
+      </c>
+      <c r="K3" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="L3" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="M3" s="6" t="n">
+        <v>45802.90902777778</v>
+      </c>
+      <c r="N3" s="5" t="n">
+        <v>6717659</v>
+      </c>
+      <c r="O3" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P3" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q3" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="R3" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="S3" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T3" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U3" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Zupper</t>
+        </is>
+      </c>
+      <c r="V3" s="5" t="inlineStr">
+        <is>
+          <t>Da©bora C C Amaral</t>
+        </is>
+      </c>
+      <c r="W3" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X3" s="5" t="inlineStr">
+        <is>
+          <t>Gol Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y3" s="5" t="n">
+        <v>2138471636</v>
+      </c>
+      <c r="Z3" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AA3" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB3" s="5" t="n">
+        <v>876.28</v>
+      </c>
+      <c r="AC3" s="5" t="n">
+        <v>90.33</v>
+      </c>
+      <c r="AD3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="5" t="n">
+        <v>87.62</v>
+      </c>
+      <c r="AF3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ3" s="5" t="inlineStr">
+        <is>
+          <t>Não foi possível definir o Local de destino!</t>
+        </is>
+      </c>
+      <c r="AK3" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AL3" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro enviado errado no Benner</t>
+        </is>
+      </c>
+      <c r="AM3" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro incompleto</t>
+        </is>
+      </c>
+      <c r="AN3" s="5" t="inlineStr">
+        <is>
+          <t>Sistema</t>
+        </is>
+      </c>
+      <c r="AO3" s="5" t="inlineStr">
+        <is>
+          <t>Sistêmico</t>
+        </is>
+      </c>
+      <c r="AP3" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ3" s="5" t="inlineStr">
+        <is>
+          <t>Suporte Benner</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="n">
+        <v>22330100</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>23186144</v>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>ACC01</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>45815.05069444444</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>45821.46111111111</v>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>06 a 08 dias</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>CRLNJC</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J4" s="5" t="inlineStr">
+        <is>
+          <t>Fabio Veiga</t>
+        </is>
+      </c>
+      <c r="K4" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>45815.05</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>6732781</v>
+      </c>
+      <c r="O4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P4" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q4" s="5" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="R4" s="5" t="inlineStr">
+        <is>
+          <t>Cartão convênio</t>
+        </is>
+      </c>
+      <c r="S4" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T4" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U4" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Zupper</t>
+        </is>
+      </c>
+      <c r="V4" s="5" t="inlineStr">
+        <is>
+          <t>Fa¡bio S Veiga</t>
+        </is>
+      </c>
+      <c r="W4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X4" s="5" t="inlineStr">
+        <is>
+          <t>Gol Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y4" s="5" t="n">
+        <v>2139207910</v>
+      </c>
+      <c r="Z4" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AA4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB4" s="5" t="n">
+        <v>330.7</v>
+      </c>
+      <c r="AC4" s="5" t="n">
+        <v>31.44</v>
+      </c>
+      <c r="AD4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ4" s="5" t="inlineStr">
+        <is>
+          <t>Não foi possível definir o Local de destino!</t>
+        </is>
+      </c>
+      <c r="AK4" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AL4" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro enviado errado no Benner</t>
+        </is>
+      </c>
+      <c r="AM4" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro incompleto</t>
+        </is>
+      </c>
+      <c r="AN4" s="5" t="inlineStr">
+        <is>
+          <t>Sistema</t>
+        </is>
+      </c>
+      <c r="AO4" s="5" t="inlineStr">
+        <is>
+          <t>Sistêmico</t>
+        </is>
+      </c>
+      <c r="AP4" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ4" s="5" t="inlineStr">
+        <is>
+          <t>Suporte Benner</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>22330100</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>23186145</v>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
           <t>ACC02</t>
         </is>
       </c>
-      <c r="D3" s="6" t="n">
-        <v>45779.71881944445</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>45786.43270833333</v>
-      </c>
-      <c r="F3" s="7" t="inlineStr">
-        <is>
-          <t>24 a 31 dias</t>
-        </is>
-      </c>
-      <c r="G3" s="7" t="inlineStr">
-        <is>
-          <t>31 dias ou +</t>
-        </is>
-      </c>
-      <c r="H3" s="5" t="inlineStr">
-        <is>
-          <t>LGNXQM</t>
-        </is>
-      </c>
-      <c r="I3" s="5" t="inlineStr">
+      <c r="D5" s="6" t="n">
+        <v>45815.05069444444</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>45821.46111111111</v>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>06 a 08 dias</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>CRLNJC</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
         <is>
           <t>EBOOKING</t>
         </is>
       </c>
-      <c r="J3" s="5" t="inlineStr">
-        <is>
-          <t>ALANDA DANTAS</t>
-        </is>
-      </c>
-      <c r="K3" s="5" t="inlineStr">
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Ingred Veiga</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
         <is>
           <t>Zupper</t>
         </is>
       </c>
-      <c r="L3" s="5" t="inlineStr">
+      <c r="L5" s="5" t="inlineStr">
         <is>
           <t>Zupper</t>
         </is>
       </c>
-      <c r="M3" s="6" t="n">
-        <v>45779.71805555555</v>
-      </c>
-      <c r="N3" s="5" t="n">
-        <v>6690977</v>
-      </c>
-      <c r="O3" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P3" s="5" t="inlineStr">
+      <c r="M5" s="6" t="n">
+        <v>45815.05</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>6732781</v>
+      </c>
+      <c r="O5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P5" s="5" t="inlineStr">
         <is>
           <t>OFF LINE</t>
         </is>
       </c>
-      <c r="Q3" s="5" t="inlineStr">
+      <c r="Q5" s="5" t="inlineStr">
         <is>
           <t>Invoice</t>
         </is>
       </c>
-      <c r="R3" s="5" t="inlineStr">
+      <c r="R5" s="5" t="inlineStr">
         <is>
           <t>Cartão convênio</t>
         </is>
       </c>
-      <c r="S3" s="5" t="inlineStr">
+      <c r="S5" s="5" t="inlineStr">
         <is>
           <t>Aéreo</t>
         </is>
       </c>
-      <c r="T3" s="5" t="inlineStr">
+      <c r="T5" s="5" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="U3" s="5" t="inlineStr">
+      <c r="U5" s="5" t="inlineStr">
         <is>
           <t>Grupo Zupper</t>
         </is>
       </c>
-      <c r="V3" s="5" t="inlineStr">
-        <is>
-          <t>Helena Bacelar</t>
-        </is>
-      </c>
-      <c r="W3" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X3" s="5" t="inlineStr">
+      <c r="V5" s="5" t="inlineStr">
+        <is>
+          <t>Fa¡bio S Veiga</t>
+        </is>
+      </c>
+      <c r="W5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X5" s="5" t="inlineStr">
+        <is>
+          <t>Gol Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y5" s="5" t="n">
+        <v>2139207911</v>
+      </c>
+      <c r="Z5" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AA5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB5" s="5" t="n">
+        <v>330.7</v>
+      </c>
+      <c r="AC5" s="5" t="n">
+        <v>31.44</v>
+      </c>
+      <c r="AD5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ5" s="5" t="inlineStr">
+        <is>
+          <t>Não foi possível definir o Local de destino!</t>
+        </is>
+      </c>
+      <c r="AK5" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AL5" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro enviado errado no Benner</t>
+        </is>
+      </c>
+      <c r="AM5" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro incompleto</t>
+        </is>
+      </c>
+      <c r="AN5" s="5" t="inlineStr">
+        <is>
+          <t>Sistema</t>
+        </is>
+      </c>
+      <c r="AO5" s="5" t="inlineStr">
+        <is>
+          <t>Sistêmico</t>
+        </is>
+      </c>
+      <c r="AP5" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ5" s="5" t="inlineStr">
+        <is>
+          <t>Suporte Benner</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>22330100</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>23186146</v>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>ACC03</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>45815.05069444444</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>45821.46111111111</v>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>06 a 08 dias</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>CRLNJC</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Valdeci Veiga</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>45815.05</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>6732781</v>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Cartão convênio</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Zupper</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Fa¡bio S Veiga</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Gol Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="n">
+        <v>2139207912</v>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="n">
+        <v>330.7</v>
+      </c>
+      <c r="AC6" s="5" t="n">
+        <v>31.44</v>
+      </c>
+      <c r="AD6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ6" s="5" t="inlineStr">
+        <is>
+          <t>Não foi possível definir o Local de destino!</t>
+        </is>
+      </c>
+      <c r="AK6" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AL6" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro enviado errado no Benner</t>
+        </is>
+      </c>
+      <c r="AM6" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro incompleto</t>
+        </is>
+      </c>
+      <c r="AN6" s="5" t="inlineStr">
+        <is>
+          <t>Sistema</t>
+        </is>
+      </c>
+      <c r="AO6" s="5" t="inlineStr">
+        <is>
+          <t>Sistêmico</t>
+        </is>
+      </c>
+      <c r="AP6" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ6" s="5" t="inlineStr">
+        <is>
+          <t>Suporte Benner</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>22330098</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>23186138</v>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>ACC01</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>45815.05</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>45821.46111111111</v>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>06 a 08 dias</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>ENTMXI</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>Fabio Veiga</t>
+        </is>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="L7" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>45815.04930555556</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>6732780</v>
+      </c>
+      <c r="O7" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P7" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q7" s="5" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="R7" s="5" t="inlineStr">
+        <is>
+          <t>Cartão convênio</t>
+        </is>
+      </c>
+      <c r="S7" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T7" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U7" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Zupper</t>
+        </is>
+      </c>
+      <c r="V7" s="5" t="inlineStr">
+        <is>
+          <t>Fa¡bio S Veiga</t>
+        </is>
+      </c>
+      <c r="W7" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X7" s="5" t="inlineStr">
         <is>
           <t>Latam Airlines Brasil</t>
         </is>
       </c>
-      <c r="Y3" s="5" t="n">
-        <v>2230548610</v>
-      </c>
-      <c r="Z3" s="5" t="inlineStr">
+      <c r="Y7" s="5" t="n">
+        <v>2236037013</v>
+      </c>
+      <c r="Z7" s="5" t="inlineStr">
         <is>
           <t>ZUPPER</t>
         </is>
       </c>
-      <c r="AA3" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB3" s="5" t="n">
-        <v>338.96</v>
-      </c>
-      <c r="AC3" s="5" t="n">
-        <v>90.98999999999999</v>
-      </c>
-      <c r="AD3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AJ3" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erro excluindo PNR: Não é possivel excluir a accounting de código: 24432964. A mesma está ligada a conciliação de cartão "REDE ANTECIPAÇÃO </t>
-        </is>
-      </c>
-      <c r="AK3" s="5" t="inlineStr">
+      <c r="AA7" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB7" s="5" t="n">
+        <v>294.32</v>
+      </c>
+      <c r="AC7" s="5" t="n">
+        <v>30.95</v>
+      </c>
+      <c r="AD7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="5" t="n">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="AI7" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ7" s="5" t="inlineStr">
+        <is>
+          <t>Não foi possível definir o Local de destino!</t>
+        </is>
+      </c>
+      <c r="AK7" s="5" t="inlineStr">
         <is>
           <t>ZUPPER</t>
         </is>
       </c>
-      <c r="AL3" s="5" t="inlineStr">
-        <is>
-          <t>Conciliação de Cartão</t>
-        </is>
-      </c>
-      <c r="AM3" s="5" t="inlineStr">
-        <is>
-          <t>Financeiro Conciliado</t>
-        </is>
-      </c>
-      <c r="AN3" s="5" t="inlineStr">
-        <is>
-          <t>Edição não Permitida</t>
-        </is>
-      </c>
-      <c r="AO3" s="5" t="inlineStr">
+      <c r="AL7" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro enviado errado no Benner</t>
+        </is>
+      </c>
+      <c r="AM7" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro incompleto</t>
+        </is>
+      </c>
+      <c r="AN7" s="5" t="inlineStr">
+        <is>
+          <t>Sistema</t>
+        </is>
+      </c>
+      <c r="AO7" s="5" t="inlineStr">
         <is>
           <t>Sistêmico</t>
         </is>
       </c>
-      <c r="AP3" s="5" t="inlineStr">
+      <c r="AP7" s="5" t="inlineStr">
         <is>
           <t>ZUPPER VIAGENS</t>
         </is>
       </c>
-      <c r="AQ3" s="5" t="inlineStr">
+      <c r="AQ7" s="5" t="inlineStr">
+        <is>
+          <t>Suporte Benner</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>22330098</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>23186139</v>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>ACC02</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>45815.05</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>45821.46111111111</v>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>06 a 08 dias</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>ENTMXI</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J8" s="5" t="inlineStr">
+        <is>
+          <t>Ingred Veiga</t>
+        </is>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>45815.04930555556</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>6732780</v>
+      </c>
+      <c r="O8" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P8" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q8" s="5" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="R8" s="5" t="inlineStr">
+        <is>
+          <t>Cartão convênio</t>
+        </is>
+      </c>
+      <c r="S8" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T8" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U8" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Zupper</t>
+        </is>
+      </c>
+      <c r="V8" s="5" t="inlineStr">
+        <is>
+          <t>Fa¡bio S Veiga</t>
+        </is>
+      </c>
+      <c r="W8" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X8" s="5" t="inlineStr">
+        <is>
+          <t>Latam Airlines Brasil</t>
+        </is>
+      </c>
+      <c r="Y8" s="5" t="n">
+        <v>2236037014</v>
+      </c>
+      <c r="Z8" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AA8" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB8" s="5" t="n">
+        <v>294.32</v>
+      </c>
+      <c r="AC8" s="5" t="n">
+        <v>30.95</v>
+      </c>
+      <c r="AD8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ8" s="5" t="inlineStr">
+        <is>
+          <t>Não foi possível definir o Local de destino!</t>
+        </is>
+      </c>
+      <c r="AK8" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AL8" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro enviado errado no Benner</t>
+        </is>
+      </c>
+      <c r="AM8" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro incompleto</t>
+        </is>
+      </c>
+      <c r="AN8" s="5" t="inlineStr">
+        <is>
+          <t>Sistema</t>
+        </is>
+      </c>
+      <c r="AO8" s="5" t="inlineStr">
+        <is>
+          <t>Sistêmico</t>
+        </is>
+      </c>
+      <c r="AP8" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ8" s="5" t="inlineStr">
+        <is>
+          <t>Suporte Benner</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n">
+        <v>22330098</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>23186140</v>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>ACC03</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>45815.05</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>45821.46111111111</v>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="inlineStr">
+        <is>
+          <t>06 a 08 dias</t>
+        </is>
+      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>ENTMXI</t>
+        </is>
+      </c>
+      <c r="I9" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J9" s="5" t="inlineStr">
+        <is>
+          <t>Valdeci Veiga</t>
+        </is>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="L9" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>45815.04930555556</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>6732780</v>
+      </c>
+      <c r="O9" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P9" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q9" s="5" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="R9" s="5" t="inlineStr">
+        <is>
+          <t>Cartão convênio</t>
+        </is>
+      </c>
+      <c r="S9" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T9" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U9" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Zupper</t>
+        </is>
+      </c>
+      <c r="V9" s="5" t="inlineStr">
+        <is>
+          <t>Fa¡bio S Veiga</t>
+        </is>
+      </c>
+      <c r="W9" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X9" s="5" t="inlineStr">
+        <is>
+          <t>Latam Airlines Brasil</t>
+        </is>
+      </c>
+      <c r="Y9" s="5" t="n">
+        <v>2236037015</v>
+      </c>
+      <c r="Z9" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AA9" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB9" s="5" t="n">
+        <v>294.32</v>
+      </c>
+      <c r="AC9" s="5" t="n">
+        <v>30.95</v>
+      </c>
+      <c r="AD9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ9" s="5" t="inlineStr">
+        <is>
+          <t>Não foi possível definir o Local de destino!</t>
+        </is>
+      </c>
+      <c r="AK9" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AL9" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro enviado errado no Benner</t>
+        </is>
+      </c>
+      <c r="AM9" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro incompleto</t>
+        </is>
+      </c>
+      <c r="AN9" s="5" t="inlineStr">
+        <is>
+          <t>Sistema</t>
+        </is>
+      </c>
+      <c r="AO9" s="5" t="inlineStr">
+        <is>
+          <t>Sistêmico</t>
+        </is>
+      </c>
+      <c r="AP9" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ9" s="5" t="inlineStr">
+        <is>
+          <t>Suporte Benner</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="n">
+        <v>22389643</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>23242388</v>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>ACC01</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>45821.44444444445</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>45821.46111111111</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G10" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>RMWMQT</t>
+        </is>
+      </c>
+      <c r="I10" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J10" s="5" t="inlineStr">
+        <is>
+          <t>JULIANA LIMA</t>
+        </is>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="L10" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>45821.44375</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>6745724</v>
+      </c>
+      <c r="O10" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P10" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q10" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="R10" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="S10" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T10" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U10" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Zupper</t>
+        </is>
+      </c>
+      <c r="V10" s="5" t="inlineStr">
+        <is>
+          <t>Juliana Lima</t>
+        </is>
+      </c>
+      <c r="W10" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X10" s="5" t="inlineStr">
+        <is>
+          <t>Azul Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y10" s="5" t="n">
+        <v>9437604350</v>
+      </c>
+      <c r="Z10" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AA10" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB10" s="5" t="n">
+        <v>321.44</v>
+      </c>
+      <c r="AC10" s="5" t="n">
+        <v>120.57</v>
+      </c>
+      <c r="AD10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="5" t="n">
+        <v>28.93</v>
+      </c>
+      <c r="AI10" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ10" s="5" t="inlineStr">
+        <is>
+          <t>Não foi possível definir o Local de destino!</t>
+        </is>
+      </c>
+      <c r="AK10" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AL10" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro enviado errado no Benner</t>
+        </is>
+      </c>
+      <c r="AM10" s="5" t="inlineStr">
+        <is>
+          <t>Cadastro incompleto</t>
+        </is>
+      </c>
+      <c r="AN10" s="5" t="inlineStr">
+        <is>
+          <t>Sistema</t>
+        </is>
+      </c>
+      <c r="AO10" s="5" t="inlineStr">
+        <is>
+          <t>Sistêmico</t>
+        </is>
+      </c>
+      <c r="AP10" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ10" s="5" t="inlineStr">
+        <is>
+          <t>Suporte Benner</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
+        <v>22389797</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>23242569</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>ACC01</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>45821.46666666667</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>45821.47569444445</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>AFQQ8F</t>
+        </is>
+      </c>
+      <c r="I11" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J11" s="5" t="inlineStr">
+        <is>
+          <t>Maria Gilvanete Lucena</t>
+        </is>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="L11" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>45821.46597222222</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>6744938</v>
+      </c>
+      <c r="O11" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P11" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q11" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="R11" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="S11" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T11" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U11" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Zupper</t>
+        </is>
+      </c>
+      <c r="V11" s="5" t="inlineStr">
+        <is>
+          <t>Lucas Vieira Lucena</t>
+        </is>
+      </c>
+      <c r="W11" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X11" s="5" t="inlineStr">
+        <is>
+          <t>Azul Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y11" s="5" t="n">
+        <v>6813556845</v>
+      </c>
+      <c r="Z11" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AA11" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB11" s="5" t="n">
+        <v>578.8</v>
+      </c>
+      <c r="AC11" s="5" t="n">
+        <v>90.33</v>
+      </c>
+      <c r="AD11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="5" t="n">
+        <v>208.36</v>
+      </c>
+      <c r="AI11" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ11" s="5" t="inlineStr">
+        <is>
+          <t>Não foi possível encontrar configuração válida para Administradora de código 1 e Data Emissão 13/06/2025</t>
+        </is>
+      </c>
+      <c r="AK11" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AL11" s="5" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
+      <c r="AM11" s="5" t="inlineStr">
+        <is>
+          <t>Análise Benner</t>
+        </is>
+      </c>
+      <c r="AN11" s="5" t="inlineStr">
+        <is>
+          <t>Sistema</t>
+        </is>
+      </c>
+      <c r="AO11" s="5" t="inlineStr">
+        <is>
+          <t>Qualidade dos dados</t>
+        </is>
+      </c>
+      <c r="AP11" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ11" s="5" t="inlineStr">
+        <is>
+          <t>Operações - ZUPPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="n">
+        <v>22389797</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>23242570</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>ACC02</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>45821.46666666667</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>45821.47569444445</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G12" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H12" s="5" t="inlineStr">
+        <is>
+          <t>AFQQ8F</t>
+        </is>
+      </c>
+      <c r="I12" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J12" s="5" t="inlineStr">
+        <is>
+          <t>Pedro Cesar Brito</t>
+        </is>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="L12" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>45821.46597222222</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>6744938</v>
+      </c>
+      <c r="O12" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P12" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q12" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="R12" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="S12" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T12" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U12" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Zupper</t>
+        </is>
+      </c>
+      <c r="V12" s="5" t="inlineStr">
+        <is>
+          <t>Lucas Vieira Lucena</t>
+        </is>
+      </c>
+      <c r="W12" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X12" s="5" t="inlineStr">
+        <is>
+          <t>Azul Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y12" s="5" t="n">
+        <v>5642723008</v>
+      </c>
+      <c r="Z12" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AA12" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB12" s="5" t="n">
+        <v>578.8</v>
+      </c>
+      <c r="AC12" s="5" t="n">
+        <v>90.33</v>
+      </c>
+      <c r="AD12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ12" s="5" t="inlineStr">
+        <is>
+          <t>Não foi possível encontrar configuração válida para Administradora de código 1 e Data Emissão 13/06/2025</t>
+        </is>
+      </c>
+      <c r="AK12" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AL12" s="5" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
+      <c r="AM12" s="5" t="inlineStr">
+        <is>
+          <t>Análise Benner</t>
+        </is>
+      </c>
+      <c r="AN12" s="5" t="inlineStr">
+        <is>
+          <t>Sistema</t>
+        </is>
+      </c>
+      <c r="AO12" s="5" t="inlineStr">
+        <is>
+          <t>Qualidade dos dados</t>
+        </is>
+      </c>
+      <c r="AP12" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ12" s="5" t="inlineStr">
+        <is>
+          <t>Operações - ZUPPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="n">
+        <v>22389797</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>23242571</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>ACC03</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>45821.46666666667</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>45821.47569444445</v>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G13" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t>AFQQ8F</t>
+        </is>
+      </c>
+      <c r="I13" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J13" s="5" t="inlineStr">
+        <is>
+          <t>Maria Evellyn Oliveira</t>
+        </is>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="L13" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>45821.46597222222</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>6744938</v>
+      </c>
+      <c r="O13" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P13" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q13" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="R13" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="S13" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T13" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U13" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Zupper</t>
+        </is>
+      </c>
+      <c r="V13" s="5" t="inlineStr">
+        <is>
+          <t>Lucas Vieira Lucena</t>
+        </is>
+      </c>
+      <c r="W13" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X13" s="5" t="inlineStr">
+        <is>
+          <t>Azul Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y13" s="5" t="n">
+        <v>9723421600</v>
+      </c>
+      <c r="Z13" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AA13" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB13" s="5" t="n">
+        <v>578.8</v>
+      </c>
+      <c r="AC13" s="5" t="n">
+        <v>90.33</v>
+      </c>
+      <c r="AD13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ13" s="5" t="inlineStr">
+        <is>
+          <t>Não foi possível encontrar configuração válida para Administradora de código 1 e Data Emissão 13/06/2025</t>
+        </is>
+      </c>
+      <c r="AK13" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AL13" s="5" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
+      <c r="AM13" s="5" t="inlineStr">
+        <is>
+          <t>Análise Benner</t>
+        </is>
+      </c>
+      <c r="AN13" s="5" t="inlineStr">
+        <is>
+          <t>Sistema</t>
+        </is>
+      </c>
+      <c r="AO13" s="5" t="inlineStr">
+        <is>
+          <t>Qualidade dos dados</t>
+        </is>
+      </c>
+      <c r="AP13" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ13" s="5" t="inlineStr">
+        <is>
+          <t>Operações - ZUPPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="n">
+        <v>22389797</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>23242572</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>ACC04</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>45821.46666666667</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>45821.47569444445</v>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G14" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H14" s="5" t="inlineStr">
+        <is>
+          <t>AFQQ8F</t>
+        </is>
+      </c>
+      <c r="I14" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J14" s="5" t="inlineStr">
+        <is>
+          <t>Plinio Cesar Brito</t>
+        </is>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="L14" s="5" t="inlineStr">
+        <is>
+          <t>Zupper</t>
+        </is>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>45821.46597222222</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>6744938</v>
+      </c>
+      <c r="O14" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P14" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q14" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="R14" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="S14" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T14" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U14" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Zupper</t>
+        </is>
+      </c>
+      <c r="V14" s="5" t="inlineStr">
+        <is>
+          <t>Lucas Vieira Lucena</t>
+        </is>
+      </c>
+      <c r="W14" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X14" s="5" t="inlineStr">
+        <is>
+          <t>Azul Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y14" s="5" t="n">
+        <v>7721843025</v>
+      </c>
+      <c r="Z14" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AA14" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB14" s="5" t="n">
+        <v>578.8</v>
+      </c>
+      <c r="AC14" s="5" t="n">
+        <v>90.33</v>
+      </c>
+      <c r="AD14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ14" s="5" t="inlineStr">
+        <is>
+          <t>Não foi possível encontrar configuração válida para Administradora de código 1 e Data Emissão 13/06/2025</t>
+        </is>
+      </c>
+      <c r="AK14" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER</t>
+        </is>
+      </c>
+      <c r="AL14" s="5" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
+      <c r="AM14" s="5" t="inlineStr">
+        <is>
+          <t>Análise Benner</t>
+        </is>
+      </c>
+      <c r="AN14" s="5" t="inlineStr">
+        <is>
+          <t>Sistema</t>
+        </is>
+      </c>
+      <c r="AO14" s="5" t="inlineStr">
+        <is>
+          <t>Qualidade dos dados</t>
+        </is>
+      </c>
+      <c r="AP14" s="5" t="inlineStr">
+        <is>
+          <t>ZUPPER VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ14" s="5" t="inlineStr">
         <is>
           <t>Operações - ZUPPER</t>
         </is>
